--- a/src/prommis/solvent_extraction/data for parmest.xlsx
+++ b/src/prommis/solvent_extraction/data for parmest.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad00105\Desktop\Model_software\prommis\src\prommis\solvent_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADDC418-2677-4DEA-9E1D-34042AD89D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FCB493-051F-4F36-8B9A-0D7E3FAA1947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="model validation new" sheetId="4" r:id="rId2"/>
+    <sheet name="model validation" sheetId="2" r:id="rId3"/>
+    <sheet name="parameter values" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+  <si>
+    <t>dosage</t>
+  </si>
   <si>
     <t>pH</t>
   </si>
@@ -59,9 +49,6 @@
     <t>logD Dy</t>
   </si>
   <si>
-    <t>dosage</t>
-  </si>
-  <si>
     <t>w_Y</t>
   </si>
   <si>
@@ -78,19 +65,72 @@
   </si>
   <si>
     <t>w_Dy</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Ce</t>
+  </si>
+  <si>
+    <t>Nd</t>
+  </si>
+  <si>
+    <t>Sm</t>
+  </si>
+  <si>
+    <t>Gd</t>
+  </si>
+  <si>
+    <t>Dy</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>La</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>Eu</t>
+  </si>
+  <si>
+    <t>Tb</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>Er</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,12 +149,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,36 +456,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -445,6 +504,725 @@
       </c>
       <c r="N1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>4.9878531370748496</v>
+      </c>
+      <c r="B2">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="C2">
+        <v>-1.64</v>
+      </c>
+      <c r="D2">
+        <v>-1.92</v>
+      </c>
+      <c r="E2">
+        <v>-1.81</v>
+      </c>
+      <c r="F2">
+        <v>-1.67</v>
+      </c>
+      <c r="G2">
+        <v>-1.85</v>
+      </c>
+      <c r="H2">
+        <v>-1.74</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4.9785421780668777</v>
+      </c>
+      <c r="B3">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="C3">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="D3">
+        <v>-1.48</v>
+      </c>
+      <c r="E3">
+        <v>-1.54</v>
+      </c>
+      <c r="F3">
+        <v>-1.62</v>
+      </c>
+      <c r="G3">
+        <v>-1.59</v>
+      </c>
+      <c r="H3">
+        <v>-1.47</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4.9294758200052957</v>
+      </c>
+      <c r="B4">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="C4">
+        <v>-0.46</v>
+      </c>
+      <c r="D4">
+        <v>-1.51</v>
+      </c>
+      <c r="E4">
+        <v>-1.46</v>
+      </c>
+      <c r="F4">
+        <v>-1.55</v>
+      </c>
+      <c r="G4">
+        <v>-1.42</v>
+      </c>
+      <c r="H4">
+        <v>-0.98</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4.8132193011041764</v>
+      </c>
+      <c r="B5">
+        <v>1.137</v>
+      </c>
+      <c r="C5">
+        <v>0.35</v>
+      </c>
+      <c r="D5">
+        <v>-1.34</v>
+      </c>
+      <c r="E5">
+        <v>-1.44</v>
+      </c>
+      <c r="F5">
+        <v>-1.55</v>
+      </c>
+      <c r="G5">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="H5">
+        <v>-0.24</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4.751685080492198</v>
+      </c>
+      <c r="B6">
+        <v>1.321</v>
+      </c>
+      <c r="C6">
+        <v>0.87</v>
+      </c>
+      <c r="D6">
+        <v>-1.3</v>
+      </c>
+      <c r="E6">
+        <v>-1.32</v>
+      </c>
+      <c r="F6">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="G6">
+        <v>-0.8</v>
+      </c>
+      <c r="H6">
+        <v>0.26</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4.7231095025915941</v>
+      </c>
+      <c r="B7">
+        <v>1.466</v>
+      </c>
+      <c r="C7">
+        <v>1.2</v>
+      </c>
+      <c r="D7">
+        <v>-1.17</v>
+      </c>
+      <c r="E7">
+        <v>-1.19</v>
+      </c>
+      <c r="F7">
+        <v>-0.85</v>
+      </c>
+      <c r="G7">
+        <v>-0.52</v>
+      </c>
+      <c r="H7">
+        <v>0.61</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4.7094378121328804</v>
+      </c>
+      <c r="B8">
+        <v>1.524</v>
+      </c>
+      <c r="C8">
+        <v>1.35</v>
+      </c>
+      <c r="D8">
+        <v>-1.02</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-0.72</v>
+      </c>
+      <c r="G8">
+        <v>-0.34</v>
+      </c>
+      <c r="H8">
+        <v>0.77</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.9915790348048139</v>
+      </c>
+      <c r="B9">
+        <v>0.235616438356164</v>
+      </c>
+      <c r="C9">
+        <v>-1.614154798725508</v>
+      </c>
+      <c r="D9">
+        <v>-1.852615520079504</v>
+      </c>
+      <c r="E9">
+        <v>-1.741725335781714</v>
+      </c>
+      <c r="F9">
+        <v>-1.852615520079504</v>
+      </c>
+      <c r="G9">
+        <v>-1.65282239968498</v>
+      </c>
+      <c r="H9">
+        <v>-1.741725335781714</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.980691304582046</v>
+      </c>
+      <c r="B10">
+        <v>0.52876712328767095</v>
+      </c>
+      <c r="C10">
+        <v>-1.1702209576189531</v>
+      </c>
+      <c r="D10">
+        <v>-1.45846503480211</v>
+      </c>
+      <c r="E10">
+        <v>-1.514596939418587</v>
+      </c>
+      <c r="F10">
+        <v>-1.578511869553177</v>
+      </c>
+      <c r="G10">
+        <v>-1.578511869553177</v>
+      </c>
+      <c r="H10">
+        <v>-1.514596939418587</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.9336677366397059</v>
+      </c>
+      <c r="B11">
+        <v>0.80273972602739696</v>
+      </c>
+      <c r="C11">
+        <v>-0.45624494742588528</v>
+      </c>
+      <c r="D11">
+        <v>-1.4856820007195011</v>
+      </c>
+      <c r="E11">
+        <v>-1.45846503480211</v>
+      </c>
+      <c r="F11">
+        <v>-1.545444573179084</v>
+      </c>
+      <c r="G11">
+        <v>-1.4327516043600459</v>
+      </c>
+      <c r="H11">
+        <v>-0.95957134294439284</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.827040781438199</v>
+      </c>
+      <c r="B12">
+        <v>1.1671232876712301</v>
+      </c>
+      <c r="C12">
+        <v>0.34014801111555087</v>
+      </c>
+      <c r="D12">
+        <v>-1.3631242825001839</v>
+      </c>
+      <c r="E12">
+        <v>-1.4327516043600459</v>
+      </c>
+      <c r="F12">
+        <v>-1.578511869553177</v>
+      </c>
+      <c r="G12">
+        <v>-1.142053948747725</v>
+      </c>
+      <c r="H12">
+        <v>-0.24615343666192119</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.7705451871527289</v>
+      </c>
+      <c r="B13">
+        <v>1.4164383561643801</v>
+      </c>
+      <c r="C13">
+        <v>0.84226874999539159</v>
+      </c>
+      <c r="D13">
+        <v>-1.3024351558328691</v>
+      </c>
+      <c r="E13">
+        <v>-1.321819483905311</v>
+      </c>
+      <c r="F13">
+        <v>-1.0900496250895491</v>
+      </c>
+      <c r="G13">
+        <v>-0.79394551756687726</v>
+      </c>
+      <c r="H13">
+        <v>0.25527250510330463</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.7440974190635239</v>
+      </c>
+      <c r="B14">
+        <v>1.61369863013698</v>
+      </c>
+      <c r="C14">
+        <v>1.191603425233924</v>
+      </c>
+      <c r="D14">
+        <v>-1.155938933396812</v>
+      </c>
+      <c r="E14">
+        <v>-1.184925368153227</v>
+      </c>
+      <c r="F14">
+        <v>-0.83880537935058663</v>
+      </c>
+      <c r="G14">
+        <v>-0.51645195951508038</v>
+      </c>
+      <c r="H14">
+        <v>0.59434585455452171</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.7322008018720709</v>
+      </c>
+      <c r="B15">
+        <v>1.6958904109588999</v>
+      </c>
+      <c r="C15">
+        <v>1.330693602277621</v>
+      </c>
+      <c r="D15">
+        <v>-0.99958018896498813</v>
+      </c>
+      <c r="E15">
+        <v>-0.99958018896498813</v>
+      </c>
+      <c r="F15">
+        <v>-0.71309653014324781</v>
+      </c>
+      <c r="G15">
+        <v>-0.33837574099736839</v>
+      </c>
+      <c r="H15">
+        <v>0.76199725943106256</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.7069872080419219</v>
+      </c>
+      <c r="B16">
+        <v>2.0739726027397198</v>
+      </c>
+      <c r="C16">
+        <v>1.818962939492804</v>
+      </c>
+      <c r="D16">
+        <v>-0.95001679396111671</v>
+      </c>
+      <c r="E16">
+        <v>-0.92231743001357314</v>
+      </c>
+      <c r="F16">
+        <v>-0.35039161049348272</v>
+      </c>
+      <c r="G16">
+        <v>0.1043479956700375</v>
+      </c>
+      <c r="H16">
+        <v>1.206967825528747</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03297CB0-4C51-451B-A08B-622D280AB166}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -455,40 +1233,40 @@
         <v>0.24099999999999999</v>
       </c>
       <c r="C2">
-        <v>-1.64</v>
+        <v>2.2395622457170408</v>
       </c>
       <c r="D2">
-        <v>-1.92</v>
+        <v>1.1879817525171541</v>
       </c>
       <c r="E2">
-        <v>-1.81</v>
+        <v>4.1825819962989419</v>
       </c>
       <c r="F2">
-        <v>-1.67</v>
+        <v>1.5251941583177724</v>
       </c>
       <c r="G2">
-        <v>-1.85</v>
+        <v>2.0932100521339581</v>
       </c>
       <c r="H2">
-        <v>-1.74</v>
+        <v>1.3928628341453531</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>1.3928628341453531</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>1.7871795372261763</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>1.9125527924175694</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.4909941389328647</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>6.1974715925357975</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>24.875920646628924</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -499,40 +1277,40 @@
         <v>0.52700000000000002</v>
       </c>
       <c r="C3">
-        <v>-1.1499999999999999</v>
+        <v>6.6114061337195595</v>
       </c>
       <c r="D3">
-        <v>-1.48</v>
+        <v>2.8666095802417866</v>
       </c>
       <c r="E3">
-        <v>-1.54</v>
+        <v>3.2051778027871105</v>
       </c>
       <c r="F3">
-        <v>-1.62</v>
+        <v>5.9350943102767584</v>
       </c>
       <c r="G3">
-        <v>-1.59</v>
+        <v>2.8031867151696526</v>
       </c>
       <c r="H3">
-        <v>-1.47</v>
+        <v>2.3426369721582359</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2.0932100521339581</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.5059821239382138</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.78806838503302834</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>3.2773891454587498</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>3.8286503882254732</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>6.9014880368182627</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -543,40 +1321,40 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="C4">
-        <v>-0.46</v>
+        <v>25.746444105693023</v>
       </c>
       <c r="D4">
-        <v>-1.51</v>
+        <v>2.8666095802417866</v>
       </c>
       <c r="E4">
-        <v>-1.46</v>
+        <v>2.9976589159516012</v>
       </c>
       <c r="F4">
-        <v>-1.55</v>
+        <v>3.3511710548371245</v>
       </c>
       <c r="G4">
-        <v>-1.42</v>
+        <v>3.3511710548371245</v>
       </c>
       <c r="H4">
-        <v>-0.98</v>
+        <v>2.7411274627306499</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2.8031867151696526</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>3.6626441176046929</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3.9143402751692982</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>9.4787395973196098</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>15.097955721132324</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>29.902260138989206</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -587,40 +1365,40 @@
         <v>1.137</v>
       </c>
       <c r="C5">
-        <v>0.35</v>
+        <v>69.123615241476301</v>
       </c>
       <c r="D5">
-        <v>-1.34</v>
+        <v>2.8666095802417866</v>
       </c>
       <c r="E5">
-        <v>-1.44</v>
+        <v>4.3710847735683966</v>
       </c>
       <c r="F5">
-        <v>-1.55</v>
+        <v>6.7550028996576179</v>
       </c>
       <c r="G5">
-        <v>-1.1599999999999999</v>
+        <v>3.5035734831986272</v>
       </c>
       <c r="H5">
-        <v>-0.24</v>
+        <v>2.7411274627306499</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>5.5609816758203392</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>6.4706500953921759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>17.282198303686044</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>36.525666494768316</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>52.300958729756232</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>73.810903254041875</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -631,40 +1409,40 @@
         <v>1.321</v>
       </c>
       <c r="C6">
-        <v>0.87</v>
+        <v>88.113778355369817</v>
       </c>
       <c r="D6">
-        <v>-1.3</v>
+        <v>5.6831520840097225</v>
       </c>
       <c r="E6">
-        <v>-1.32</v>
+        <v>4.7726721034203887</v>
       </c>
       <c r="F6">
-        <v>-1.1100000000000001</v>
+        <v>4.1825819962989419</v>
       </c>
       <c r="G6">
-        <v>-0.8</v>
+        <v>4.5676781039662373</v>
       </c>
       <c r="H6">
-        <v>0.26</v>
+        <v>7.2033158503842589</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>11.181576977811691</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>13.680688860321</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>37.599824138233288</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>64.535245043938247</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>79.174883750818452</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>89.045063872292474</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -675,40 +1453,40 @@
         <v>1.466</v>
       </c>
       <c r="C7">
-        <v>1.2</v>
+        <v>94.064905689723247</v>
       </c>
       <c r="D7">
-        <v>-1.17</v>
+        <v>5.6831520840097225</v>
       </c>
       <c r="E7">
-        <v>-1.19</v>
+        <v>6.3326875310947912</v>
       </c>
       <c r="F7">
-        <v>-0.85</v>
+        <v>10.08826283567233</v>
       </c>
       <c r="G7">
-        <v>-0.52</v>
+        <v>6.0649558509397785</v>
       </c>
       <c r="H7">
-        <v>0.61</v>
+        <v>12.377068106893542</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>19.709082984618405</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>23.194799683241598</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>55.731163376229276</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>80.290917015381595</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>88.58769425858496</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>94.064905689723247</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -719,395 +1497,421 @@
         <v>1.524</v>
       </c>
       <c r="C8">
-        <v>1.35</v>
+        <v>95.724158885346398</v>
       </c>
       <c r="D8">
-        <v>-1.02</v>
+        <v>11.412305741415047</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>8.7174188254586831</v>
       </c>
       <c r="F8">
-        <v>-0.72</v>
+        <v>11.647171194356073</v>
       </c>
       <c r="G8">
-        <v>-0.34</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="H8">
-        <v>0.77</v>
+        <v>16.004930536524654</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>26.636629758619261</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>31.369974231668753</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>64.006499980288496</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>85.482917753175954</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>92.321068030289979</v>
       </c>
       <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0.235616438356164</v>
-      </c>
-      <c r="C9">
-        <v>-1.614154798725508</v>
-      </c>
-      <c r="D9">
-        <v>-1.8526155200795036</v>
-      </c>
-      <c r="E9">
-        <v>-1.7417253357817144</v>
-      </c>
-      <c r="F9">
-        <v>-1.8526155200795036</v>
-      </c>
-      <c r="G9">
-        <v>-1.6528223996849798</v>
-      </c>
-      <c r="H9">
-        <v>-1.7417253357817144</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>0.52876712328767095</v>
-      </c>
-      <c r="C10">
-        <v>-1.1702209576189531</v>
-      </c>
-      <c r="D10">
-        <v>-1.4584650348021104</v>
-      </c>
-      <c r="E10">
-        <v>-1.514596939418587</v>
-      </c>
-      <c r="F10">
-        <v>-1.5785118695531766</v>
-      </c>
-      <c r="G10">
-        <v>-1.5785118695531766</v>
-      </c>
-      <c r="H10">
-        <v>-1.514596939418587</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>0.80273972602739696</v>
-      </c>
-      <c r="C11">
-        <v>-0.45624494742588534</v>
-      </c>
-      <c r="D11">
-        <v>-1.4856820007195013</v>
-      </c>
-      <c r="E11">
-        <v>-1.4584650348021104</v>
-      </c>
-      <c r="F11">
-        <v>-1.5454445731790836</v>
-      </c>
-      <c r="G11">
-        <v>-1.4327516043600463</v>
-      </c>
-      <c r="H11">
-        <v>-0.95957134294439284</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>1.1671232876712301</v>
-      </c>
-      <c r="C12">
-        <v>0.34014801111555087</v>
-      </c>
-      <c r="D12">
-        <v>-1.3631242825001837</v>
-      </c>
-      <c r="E12">
-        <v>-1.4327516043600463</v>
-      </c>
-      <c r="F12">
-        <v>-1.5785118695531766</v>
-      </c>
-      <c r="G12">
-        <v>-1.1420539487477248</v>
-      </c>
-      <c r="H12">
-        <v>-0.24615343666192122</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>1.4164383561643801</v>
-      </c>
-      <c r="C13">
-        <v>0.84226874999539159</v>
-      </c>
-      <c r="D13">
-        <v>-1.3024351558328688</v>
-      </c>
-      <c r="E13">
-        <v>-1.3218194839053112</v>
-      </c>
-      <c r="F13">
-        <v>-1.0900496250895486</v>
-      </c>
-      <c r="G13">
-        <v>-0.79394551756687726</v>
-      </c>
-      <c r="H13">
-        <v>0.25527250510330457</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>1.61369863013698</v>
-      </c>
-      <c r="C14">
-        <v>1.1916034252339245</v>
-      </c>
-      <c r="D14">
-        <v>-1.1559389333968122</v>
-      </c>
-      <c r="E14">
-        <v>-1.1849253681532266</v>
-      </c>
-      <c r="F14">
-        <v>-0.83880537935058663</v>
-      </c>
-      <c r="G14">
-        <v>-0.51645195951508038</v>
-      </c>
-      <c r="H14">
-        <v>0.59434585455452171</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>1.6958904109588999</v>
-      </c>
-      <c r="C15">
-        <v>1.3306936022776208</v>
-      </c>
-      <c r="D15">
-        <v>-0.99958018896498813</v>
-      </c>
-      <c r="E15">
-        <v>-0.99958018896498813</v>
-      </c>
-      <c r="F15">
-        <v>-0.71309653014324781</v>
-      </c>
-      <c r="G15">
-        <v>-0.33837574099736839</v>
-      </c>
-      <c r="H15">
-        <v>0.76199725943106256</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>2.0739726027397198</v>
-      </c>
-      <c r="C16">
-        <v>1.8189629394928035</v>
-      </c>
-      <c r="D16">
-        <v>-0.95001679396111671</v>
-      </c>
-      <c r="E16">
-        <v>-0.92231743001357314</v>
-      </c>
-      <c r="F16">
-        <v>-0.35039161049348272</v>
-      </c>
-      <c r="G16">
-        <v>0.10434799567003748</v>
-      </c>
-      <c r="H16">
-        <v>1.206967825528747</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
+        <v>95.531649062820279</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.235616438356164</v>
+      </c>
+      <c r="C2">
+        <v>2.373626373626359</v>
+      </c>
+      <c r="D2">
+        <v>1.3846153846153491</v>
+      </c>
+      <c r="E2">
+        <v>1.780219780219759</v>
+      </c>
+      <c r="F2">
+        <v>1.3846153846153491</v>
+      </c>
+      <c r="G2">
+        <v>2.1758241758241401</v>
+      </c>
+      <c r="H2">
+        <v>1.780219780219759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.52876712328767095</v>
+      </c>
+      <c r="C3">
+        <v>6.329670329670317</v>
+      </c>
+      <c r="D3">
+        <v>3.3626373626373378</v>
+      </c>
+      <c r="E3">
+        <v>2.967032967032929</v>
+      </c>
+      <c r="F3">
+        <v>2.571428571428549</v>
+      </c>
+      <c r="G3">
+        <v>2.571428571428549</v>
+      </c>
+      <c r="H3">
+        <v>2.967032967032929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.80273972602739696</v>
+      </c>
+      <c r="C4">
+        <v>25.912087912087799</v>
+      </c>
+      <c r="D4">
+        <v>3.16483516483515</v>
+      </c>
+      <c r="E4">
+        <v>3.3626373626373378</v>
+      </c>
+      <c r="F4">
+        <v>2.769230769230739</v>
+      </c>
+      <c r="G4">
+        <v>3.56043956043953</v>
+      </c>
+      <c r="H4">
+        <v>9.8901098901098674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1.1671232876712301</v>
+      </c>
+      <c r="C5">
+        <v>68.637362637362614</v>
+      </c>
+      <c r="D5">
+        <v>4.1538461538461409</v>
+      </c>
+      <c r="E5">
+        <v>3.56043956043953</v>
+      </c>
+      <c r="F5">
+        <v>2.571428571428549</v>
+      </c>
+      <c r="G5">
+        <v>6.7252747252746978</v>
+      </c>
+      <c r="H5">
+        <v>36.197802197802098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1.4164383561643801</v>
+      </c>
+      <c r="C6">
+        <v>87.428571428571402</v>
+      </c>
+      <c r="D6">
+        <v>4.7472527472527402</v>
+      </c>
+      <c r="E6">
+        <v>4.5494505494505493</v>
+      </c>
+      <c r="F6">
+        <v>7.5164835164834978</v>
+      </c>
+      <c r="G6">
+        <v>13.84615384615379</v>
+      </c>
+      <c r="H6">
+        <v>64.285714285714207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1.61369863013698</v>
+      </c>
+      <c r="C7">
+        <v>93.956043956043899</v>
+      </c>
+      <c r="D7">
+        <v>6.5274725274725096</v>
+      </c>
+      <c r="E7">
+        <v>6.1318681318681314</v>
+      </c>
+      <c r="F7">
+        <v>12.659340659340589</v>
+      </c>
+      <c r="G7">
+        <v>23.34065934065929</v>
+      </c>
+      <c r="H7">
+        <v>79.714285714285694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1.6958904109588999</v>
+      </c>
+      <c r="C8">
+        <v>95.538461538461505</v>
+      </c>
+      <c r="D8">
+        <v>9.0989010989010772</v>
+      </c>
+      <c r="E8">
+        <v>9.0989010989010772</v>
+      </c>
+      <c r="F8">
+        <v>16.219780219780201</v>
+      </c>
+      <c r="G8">
+        <v>31.450549450549399</v>
+      </c>
+      <c r="H8">
+        <v>85.252747252747199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2.0739726027397198</v>
+      </c>
+      <c r="C9">
+        <v>98.505494505494497</v>
+      </c>
+      <c r="D9">
+        <v>10.087912087912001</v>
+      </c>
+      <c r="E9">
+        <v>10.681318681318601</v>
+      </c>
+      <c r="F9">
+        <v>30.857142857142801</v>
+      </c>
+      <c r="G9">
+        <v>55.978021978021907</v>
+      </c>
+      <c r="H9">
+        <v>94.153846153846104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1.9230277973689189</v>
+      </c>
+      <c r="C2">
+        <v>7.4853223749340739E-2</v>
+      </c>
+      <c r="D2">
+        <v>-2.186903544087802</v>
+      </c>
+      <c r="E2">
+        <v>6.2819968088334883E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0.45180472927002618</v>
+      </c>
+      <c r="C3">
+        <v>1.4818400727574539E-2</v>
+      </c>
+      <c r="D3">
+        <v>-1.920419793279931</v>
+      </c>
+      <c r="E3">
+        <v>9.4796428584878155E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0.4060631417975501</v>
+      </c>
+      <c r="C4">
+        <v>3.377870105588704E-7</v>
+      </c>
+      <c r="D4">
+        <v>-1.8201074199150331</v>
+      </c>
+      <c r="E4">
+        <v>1.7792669785849251E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0.7640355993348783</v>
+      </c>
+      <c r="C5">
+        <v>2.1876135734062978E-2</v>
+      </c>
+      <c r="D5">
+        <v>-2.153372230911101</v>
+      </c>
+      <c r="E5">
+        <v>8.4034192197119471E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1.141497734476933</v>
+      </c>
+      <c r="C6">
+        <v>1.9310300700903041E-6</v>
+      </c>
+      <c r="D6">
+        <v>-2.4072482532473858</v>
+      </c>
+      <c r="E6">
+        <v>0.2967112856598183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>1.689088275320092</v>
+      </c>
+      <c r="C7">
+        <v>5.7739858084018603E-2</v>
+      </c>
+      <c r="D7">
+        <v>-2.3544739523307872</v>
+      </c>
+      <c r="E7">
+        <v>1.0897915653978989E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/src/prommis/solvent_extraction/data for parmest.xlsx
+++ b/src/prommis/solvent_extraction/data for parmest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad00105\Desktop\Model_software\prommis\src\prommis\solvent_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAAD9ED-B13E-46B8-B9CB-2C1FA979F4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCC6986-90D2-428F-8546-C767C7E1882B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="1785" windowWidth="25440" windowHeight="15270" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="1785" windowWidth="25440" windowHeight="15270" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,29 @@
     <sheet name="parameter values" sheetId="5" r:id="rId5"/>
     <sheet name="parameter values feed dosage" sheetId="6" r:id="rId6"/>
     <sheet name="parameter values out dosage" sheetId="7" r:id="rId7"/>
-    <sheet name="new parameter values" sheetId="8" r:id="rId8"/>
+    <sheet name="impurities new" sheetId="10" r:id="rId8"/>
+    <sheet name="impurities" sheetId="9" r:id="rId9"/>
+    <sheet name="new parameter values" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
   <si>
     <t>dosage</t>
   </si>
@@ -129,6 +144,54 @@
   </si>
   <si>
     <t>b2</t>
+  </si>
+  <si>
+    <t>E Sc</t>
+  </si>
+  <si>
+    <t>E Fe</t>
+  </si>
+  <si>
+    <t>E Al</t>
+  </si>
+  <si>
+    <t>E Ca</t>
+  </si>
+  <si>
+    <t>D Sc</t>
+  </si>
+  <si>
+    <t>D Fe</t>
+  </si>
+  <si>
+    <t>D Al</t>
+  </si>
+  <si>
+    <t>D Ca</t>
+  </si>
+  <si>
+    <t>logD Sc</t>
+  </si>
+  <si>
+    <t>logD Fe</t>
+  </si>
+  <si>
+    <t>logD Al</t>
+  </si>
+  <si>
+    <t>logD Ca</t>
+  </si>
+  <si>
+    <t>w_Sc</t>
+  </si>
+  <si>
+    <t>w_Fe</t>
+  </si>
+  <si>
+    <t>w_Al</t>
+  </si>
+  <si>
+    <t>w_Ca</t>
   </si>
 </sst>
 </file>
@@ -1261,12 +1324,175 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>1.9230277973689189</v>
+      </c>
+      <c r="C2">
+        <v>7.4853223749340697E-2</v>
+      </c>
+      <c r="D2">
+        <v>-2.186903544087802</v>
+      </c>
+      <c r="E2">
+        <v>6.2819968088334883E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0.40934779068598548</v>
+      </c>
+      <c r="C3">
+        <v>2.184394953888762E-2</v>
+      </c>
+      <c r="D3">
+        <v>-1.9088873395697761</v>
+      </c>
+      <c r="E3">
+        <v>4.0077052565401582E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.31947783967772719</v>
+      </c>
+      <c r="C4">
+        <v>2.9492900539413839E-2</v>
+      </c>
+      <c r="D4">
+        <v>-1.814985366872192</v>
+      </c>
+      <c r="E4">
+        <v>4.3156483939276691E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.76409694343945378</v>
+      </c>
+      <c r="C5">
+        <v>2.1853172503817981E-2</v>
+      </c>
+      <c r="D5">
+        <v>-2.1534567137894132</v>
+      </c>
+      <c r="E5">
+        <v>8.6166082184064262E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>1.09614730348912</v>
+      </c>
+      <c r="C6">
+        <v>5.7992406444091798E-9</v>
+      </c>
+      <c r="D6">
+        <v>-2.316138292964721</v>
+      </c>
+      <c r="E6">
+        <v>0.20823224113088351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>1.689088275320092</v>
+      </c>
+      <c r="C7">
+        <v>5.7739858084018658E-2</v>
+      </c>
+      <c r="D7">
+        <v>-2.3544739523307872</v>
+      </c>
+      <c r="E7">
+        <v>1.0897915653979019E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>0.54092522480101835</v>
+      </c>
+      <c r="C8">
+        <v>2.164310043545248E-7</v>
+      </c>
+      <c r="D8">
+        <v>-2.5048920145960709</v>
+      </c>
+      <c r="E8">
+        <v>0.81413544019443052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>0.55355055089135108</v>
+      </c>
+      <c r="C9">
+        <v>1.274609263782018E-7</v>
+      </c>
+      <c r="D9">
+        <v>-3.0154258280186022</v>
+      </c>
+      <c r="E9">
+        <v>1.5329850440033119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,164 +3572,947 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0B4D14-77A9-4737-A81E-2736F8DB61CC}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1.9230277973689189</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
-        <v>7.4853223749340697E-2</v>
+        <v>0.37890162349538925</v>
       </c>
       <c r="D2">
-        <v>-2.186903544087802</v>
+        <v>-0.55880438484237782</v>
       </c>
       <c r="E2">
-        <v>6.2819968088334883E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>-0.22018318867981979</v>
+      </c>
+      <c r="F2">
+        <v>0.28887120618536088</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.40934779068598548</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2.184394953888762E-2</v>
+        <v>0.74730347581587131</v>
       </c>
       <c r="D3">
-        <v>-1.9088873395697761</v>
+        <v>-0.25642653036117807</v>
       </c>
       <c r="E3">
-        <v>4.0077052565401582E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>-9.619521531998218E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.41814043679433915</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.31947783967772719</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2.9492900539413839E-2</v>
+        <v>0.81772606167682238</v>
       </c>
       <c r="D4">
-        <v>-1.814985366872192</v>
+        <v>-0.12006930682745025</v>
       </c>
       <c r="E4">
-        <v>4.3156483939276691E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>-1.0486492932958912E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.47260455139702245</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.76409694343945378</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2.1853172503817981E-2</v>
+        <v>0.94732133535924345</v>
       </c>
       <c r="D5">
-        <v>-2.1534567137894132</v>
+        <v>7.2103517063392866E-2</v>
       </c>
       <c r="E5">
-        <v>8.6166082184064262E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>0.15970084286751188</v>
+      </c>
+      <c r="F5">
+        <v>0.52895058389195404</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1.09614730348912</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>5.7992406444091798E-9</v>
+        <v>1.0031112079008204</v>
       </c>
       <c r="D6">
-        <v>-2.316138292964721</v>
+        <v>0.27645618591098309</v>
       </c>
       <c r="E6">
-        <v>0.20823224113088351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>27</v>
+        <v>0.2413180682920206</v>
+      </c>
+      <c r="F6">
+        <v>0.63375355796501509</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>1.689088275320092</v>
+        <v>0.19</v>
       </c>
       <c r="C7">
-        <v>5.7739858084018658E-2</v>
+        <v>0.20196243818624662</v>
       </c>
       <c r="D7">
-        <v>-2.3544739523307872</v>
+        <v>0.73398894149761618</v>
       </c>
       <c r="E7">
-        <v>1.0897915653979019E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>2.2411320697578532E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.37467651080669057</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0.54092522480101835</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2.164310043545248E-7</v>
+        <v>0.76789849152443013</v>
       </c>
       <c r="D8">
-        <v>-2.5048920145960709</v>
+        <v>-0.26172914980845402</v>
       </c>
       <c r="E8">
-        <v>0.81413544019443052</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>-9.0732996238242117E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.41866397556212759</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>0.55355055089135108</v>
+        <v>0.99</v>
       </c>
       <c r="C9">
-        <v>1.274609263782018E-7</v>
+        <v>1.2243477512838914</v>
       </c>
       <c r="D9">
-        <v>-3.0154258280186022</v>
+        <v>-0.60959581881686786</v>
       </c>
       <c r="E9">
-        <v>1.5329850440033119</v>
+        <v>-0.23437228355177228</v>
+      </c>
+      <c r="F9">
+        <v>0.46721891154789469</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1.49</v>
+      </c>
+      <c r="C10">
+        <v>1.7802534902211495</v>
+      </c>
+      <c r="D10">
+        <v>-0.65230372820996729</v>
+      </c>
+      <c r="E10">
+        <v>-0.52714761933160048</v>
+      </c>
+      <c r="F10">
+        <v>0.60236401267877693</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1.79</v>
+      </c>
+      <c r="C11">
+        <v>1.9074053552227763</v>
+      </c>
+      <c r="D11">
+        <v>-1.574557366498176</v>
+      </c>
+      <c r="E11">
+        <v>-0.56219097385209027</v>
+      </c>
+      <c r="F11">
+        <v>0.8488269794820742</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01820E80-019D-4771-AB1F-FBB8D25423A7}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>44.37</v>
+      </c>
+      <c r="D2">
+        <v>8.43</v>
+      </c>
+      <c r="E2">
+        <v>16.72</v>
+      </c>
+      <c r="F2">
+        <v>39.33</v>
+      </c>
+      <c r="G2">
+        <f>3*C2/(100-C2)</f>
+        <v>2.3927736832644251</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="0">3*D2/(100-D2)</f>
+        <v>0.27618215572785848</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0.60230547550432267</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>1.9447832536673808</v>
+      </c>
+      <c r="K2">
+        <f>LOG10(G2)</f>
+        <v>0.37890162349538925</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:N2" si="1">LOG10(H2)</f>
+        <v>-0.55880438484237782</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="1"/>
+        <v>-0.22018318867981979</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="1"/>
+        <v>0.28887120618536088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="D3">
+        <v>15.59</v>
+      </c>
+      <c r="E3">
+        <v>21.08</v>
+      </c>
+      <c r="F3">
+        <v>46.61</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="2">3*C3/(100-C3)</f>
+        <v>5.5886057829945592</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="3">3*D3/(100-D3)</f>
+        <v>0.55408126999170715</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="4">3*E3/(100-E3)</f>
+        <v>0.8013177901672579</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="5">3*F3/(100-F3)</f>
+        <v>2.6190297808578382</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="6">LOG10(G3)</f>
+        <v>0.74730347581587131</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="7">LOG10(H3)</f>
+        <v>-0.25642653036117807</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="8">LOG10(I3)</f>
+        <v>-9.619521531998218E-2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N11" si="9">LOG10(J3)</f>
+        <v>0.41814043679433915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>68.66</v>
+      </c>
+      <c r="D4">
+        <v>20.18</v>
+      </c>
+      <c r="E4">
+        <v>24.55</v>
+      </c>
+      <c r="F4">
+        <v>49.74</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>6.5724313975749826</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>0.75845652718616896</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>0.97614314115308154</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>2.9689614007162755</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>0.81772606167682238</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="7"/>
+        <v>-0.12006930682745025</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="8"/>
+        <v>-1.0486492932958912E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="9"/>
+        <v>0.47260455139702245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>74.7</v>
+      </c>
+      <c r="D5">
+        <v>28.24</v>
+      </c>
+      <c r="E5">
+        <v>32.5</v>
+      </c>
+      <c r="F5">
+        <v>52.98</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>8.8577075098814255</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1.1806020066889631</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>3.3802637175669923</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>0.94732133535924345</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>7.2103517063392866E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>0.15970084286751188</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="9"/>
+        <v>0.52895058389195404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>77.05</v>
+      </c>
+      <c r="D6">
+        <v>38.65</v>
+      </c>
+      <c r="E6">
+        <v>36.75</v>
+      </c>
+      <c r="F6">
+        <v>58.92</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>10.071895424836599</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1.8899755501222493</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>1.7430830039525691</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>4.3028237585199607</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>1.0031112079008204</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>0.27645618591098309</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>0.2413180682920206</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="9"/>
+        <v>0.63375355796501509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0.19</v>
+      </c>
+      <c r="C7">
+        <v>34.67</v>
+      </c>
+      <c r="D7">
+        <v>64.37</v>
+      </c>
+      <c r="E7">
+        <v>25.98</v>
+      </c>
+      <c r="F7">
+        <v>44.13</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>1.5920710240318385</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>5.4198708953129398</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>1.0529586598216698</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>2.3696080186146413</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>0.20196243818624662</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>0.73398894149761618</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>2.2411320697578532E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="9"/>
+        <v>0.37467651080669057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>66.14</v>
+      </c>
+      <c r="D8">
+        <v>15.43</v>
+      </c>
+      <c r="E8">
+        <v>21.29</v>
+      </c>
+      <c r="F8">
+        <v>46.64</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>5.8600118133490851</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.54735721887194044</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>0.81145978909922489</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>2.6221889055472265</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>0.76789849152443013</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>-0.26172914980845402</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>-9.0732996238242117E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="9"/>
+        <v>0.41866397556212759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0.99</v>
+      </c>
+      <c r="C9">
+        <v>84.82</v>
+      </c>
+      <c r="D9">
+        <v>7.57</v>
+      </c>
+      <c r="E9">
+        <v>16.27</v>
+      </c>
+      <c r="F9">
+        <v>49.43</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>16.762845849802364</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0.2456994482310938</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0.5829451809387316</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>2.9323709709313821</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>1.2243477512838914</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>-0.60959581881686786</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>-0.23437228355177228</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="9"/>
+        <v>0.46721891154789469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1.49</v>
+      </c>
+      <c r="C10">
+        <v>95.26</v>
+      </c>
+      <c r="D10">
+        <v>6.91</v>
+      </c>
+      <c r="E10">
+        <v>9.01</v>
+      </c>
+      <c r="F10">
+        <v>57.16</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>60.291139240506403</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0.22268772155978087</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0.29706561160567097</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>4.0028011204481784</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>1.7802534902211495</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>-0.65230372820996729</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>-0.52714761933160048</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="9"/>
+        <v>0.60236401267877693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1.79</v>
+      </c>
+      <c r="C11">
+        <v>96.42</v>
+      </c>
+      <c r="D11">
+        <v>0.88</v>
+      </c>
+      <c r="E11">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="F11">
+        <v>70.180000000000007</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>80.79888268156428</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>2.6634382566585957E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0.27403688748226562</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>7.0603621730382313</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>1.9074053552227763</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>-1.574557366498176</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>-0.56219097385209027</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="9"/>
+        <v>0.8488269794820742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/prommis/solvent_extraction/data for parmest.xlsx
+++ b/src/prommis/solvent_extraction/data for parmest.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad00105\Desktop\Model_software\prommis\src\prommis\solvent_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCC6986-90D2-428F-8546-C767C7E1882B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877232CD-7D9A-439D-9300-35223FDB4A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="1785" windowWidth="25440" windowHeight="15270" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="1785" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="model validation new" sheetId="3" r:id="rId3"/>
-    <sheet name="model validation" sheetId="4" r:id="rId4"/>
-    <sheet name="parameter values" sheetId="5" r:id="rId5"/>
-    <sheet name="parameter values feed dosage" sheetId="6" r:id="rId6"/>
-    <sheet name="parameter values out dosage" sheetId="7" r:id="rId7"/>
-    <sheet name="impurities new" sheetId="10" r:id="rId8"/>
-    <sheet name="impurities" sheetId="9" r:id="rId9"/>
-    <sheet name="new parameter values" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId3"/>
+    <sheet name="model validation new" sheetId="3" r:id="rId4"/>
+    <sheet name="model validation" sheetId="4" r:id="rId5"/>
+    <sheet name="parameter values" sheetId="5" r:id="rId6"/>
+    <sheet name="parameter values feed dosage" sheetId="6" r:id="rId7"/>
+    <sheet name="parameter values out dosage" sheetId="7" r:id="rId8"/>
+    <sheet name="impurities new" sheetId="10" r:id="rId9"/>
+    <sheet name="impurities" sheetId="9" r:id="rId10"/>
+    <sheet name="new parameter values" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
   <si>
     <t>dosage</t>
   </si>
@@ -192,6 +193,9 @@
   </si>
   <si>
     <t>w_Ca</t>
+  </si>
+  <si>
+    <t>Acid conc (M)</t>
   </si>
 </sst>
 </file>
@@ -1325,6 +1329,585 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01820E80-019D-4771-AB1F-FBB8D25423A7}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>44.37</v>
+      </c>
+      <c r="D2">
+        <v>8.43</v>
+      </c>
+      <c r="E2">
+        <v>16.72</v>
+      </c>
+      <c r="F2">
+        <v>39.33</v>
+      </c>
+      <c r="G2">
+        <f>3*C2/(100-C2)</f>
+        <v>2.3927736832644251</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="0">3*D2/(100-D2)</f>
+        <v>0.27618215572785848</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0.60230547550432267</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>1.9447832536673808</v>
+      </c>
+      <c r="K2">
+        <f>LOG10(G2)</f>
+        <v>0.37890162349538925</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:N2" si="1">LOG10(H2)</f>
+        <v>-0.55880438484237782</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="1"/>
+        <v>-0.22018318867981979</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="1"/>
+        <v>0.28887120618536088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="D3">
+        <v>15.59</v>
+      </c>
+      <c r="E3">
+        <v>21.08</v>
+      </c>
+      <c r="F3">
+        <v>46.61</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="2">3*C3/(100-C3)</f>
+        <v>5.5886057829945592</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="3">3*D3/(100-D3)</f>
+        <v>0.55408126999170715</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="4">3*E3/(100-E3)</f>
+        <v>0.8013177901672579</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="5">3*F3/(100-F3)</f>
+        <v>2.6190297808578382</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="6">LOG10(G3)</f>
+        <v>0.74730347581587131</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="7">LOG10(H3)</f>
+        <v>-0.25642653036117807</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="8">LOG10(I3)</f>
+        <v>-9.619521531998218E-2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N11" si="9">LOG10(J3)</f>
+        <v>0.41814043679433915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>68.66</v>
+      </c>
+      <c r="D4">
+        <v>20.18</v>
+      </c>
+      <c r="E4">
+        <v>24.55</v>
+      </c>
+      <c r="F4">
+        <v>49.74</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>6.5724313975749826</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>0.75845652718616896</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>0.97614314115308154</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>2.9689614007162755</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>0.81772606167682238</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="7"/>
+        <v>-0.12006930682745025</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="8"/>
+        <v>-1.0486492932958912E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="9"/>
+        <v>0.47260455139702245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>74.7</v>
+      </c>
+      <c r="D5">
+        <v>28.24</v>
+      </c>
+      <c r="E5">
+        <v>32.5</v>
+      </c>
+      <c r="F5">
+        <v>52.98</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>8.8577075098814255</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1.1806020066889631</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>3.3802637175669923</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>0.94732133535924345</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>7.2103517063392866E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>0.15970084286751188</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="9"/>
+        <v>0.52895058389195404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>77.05</v>
+      </c>
+      <c r="D6">
+        <v>38.65</v>
+      </c>
+      <c r="E6">
+        <v>36.75</v>
+      </c>
+      <c r="F6">
+        <v>58.92</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>10.071895424836599</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1.8899755501222493</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>1.7430830039525691</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>4.3028237585199607</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>1.0031112079008204</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>0.27645618591098309</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>0.2413180682920206</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="9"/>
+        <v>0.63375355796501509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0.19</v>
+      </c>
+      <c r="C7">
+        <v>34.67</v>
+      </c>
+      <c r="D7">
+        <v>64.37</v>
+      </c>
+      <c r="E7">
+        <v>25.98</v>
+      </c>
+      <c r="F7">
+        <v>44.13</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>1.5920710240318385</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>5.4198708953129398</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>1.0529586598216698</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>2.3696080186146413</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>0.20196243818624662</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>0.73398894149761618</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>2.2411320697578532E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="9"/>
+        <v>0.37467651080669057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>66.14</v>
+      </c>
+      <c r="D8">
+        <v>15.43</v>
+      </c>
+      <c r="E8">
+        <v>21.29</v>
+      </c>
+      <c r="F8">
+        <v>46.64</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>5.8600118133490851</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.54735721887194044</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>0.81145978909922489</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>2.6221889055472265</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>0.76789849152443013</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>-0.26172914980845402</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>-9.0732996238242117E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="9"/>
+        <v>0.41866397556212759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0.99</v>
+      </c>
+      <c r="C9">
+        <v>84.82</v>
+      </c>
+      <c r="D9">
+        <v>7.57</v>
+      </c>
+      <c r="E9">
+        <v>16.27</v>
+      </c>
+      <c r="F9">
+        <v>49.43</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>16.762845849802364</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0.2456994482310938</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0.5829451809387316</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>2.9323709709313821</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>1.2243477512838914</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>-0.60959581881686786</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>-0.23437228355177228</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="9"/>
+        <v>0.46721891154789469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1.49</v>
+      </c>
+      <c r="C10">
+        <v>95.26</v>
+      </c>
+      <c r="D10">
+        <v>6.91</v>
+      </c>
+      <c r="E10">
+        <v>9.01</v>
+      </c>
+      <c r="F10">
+        <v>57.16</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>60.291139240506403</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0.22268772155978087</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0.29706561160567097</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>4.0028011204481784</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>1.7802534902211495</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>-0.65230372820996729</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>-0.52714761933160048</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="9"/>
+        <v>0.60236401267877693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1.79</v>
+      </c>
+      <c r="C11">
+        <v>96.42</v>
+      </c>
+      <c r="D11">
+        <v>0.88</v>
+      </c>
+      <c r="E11">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="F11">
+        <v>70.180000000000007</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>80.79888268156428</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>2.6634382566585957E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0.27403688748226562</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>7.0603621730382313</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>1.9074053552227763</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>-1.574557366498176</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>-0.56219097385209027</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="9"/>
+        <v>0.8488269794820742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1489,15 +2072,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="T2" sqref="T2:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +2136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>4.9878531370748496</v>
       </c>
@@ -1608,8 +2191,12 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <f>10^(-B2)</f>
+        <v>0.57411646220732748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>4.9785421780668777</v>
       </c>
@@ -1664,8 +2251,12 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <f t="shared" ref="T3:T19" si="0">10^(-B3)</f>
+        <v>0.29716660317380256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>4.9294758200052957</v>
       </c>
@@ -1720,8 +2311,12 @@
       <c r="R4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0.15995580286146685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4.8132193011041764</v>
       </c>
@@ -1776,8 +2371,12 @@
       <c r="R5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>7.2945751025456848E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4.751685080492198</v>
       </c>
@@ -1832,8 +2431,12 @@
       <c r="R6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>4.7752927365769082E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4.7231095025915941</v>
       </c>
@@ -1888,8 +2491,12 @@
       <c r="R7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>3.4197944251370883E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4.7094378121328804</v>
       </c>
@@ -1944,8 +2551,12 @@
       <c r="R8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>2.9922646366081884E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.9915790348048139</v>
       </c>
@@ -2000,8 +2611,12 @@
       <c r="R9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.5812775655381871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1.980691304582046</v>
       </c>
@@ -2056,8 +2671,12 @@
       <c r="R10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0.29595990327355498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1.9336677366397059</v>
       </c>
@@ -2112,8 +2731,12 @@
       <c r="R11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0.15749264397861987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1.827040781438199</v>
       </c>
@@ -2168,8 +2791,12 @@
       <c r="R12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>6.8057612907559836E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1.7705451871527289</v>
       </c>
@@ -2224,8 +2851,12 @@
       <c r="R13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>3.833201450680674E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1.7440974190635239</v>
       </c>
@@ -2280,8 +2911,12 @@
       <c r="R14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>2.4338923735390913E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1.7322008018720709</v>
       </c>
@@ -2336,8 +2971,12 @@
       <c r="R15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>2.0142324533150509E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1.7069872080419219</v>
       </c>
@@ -2392,8 +3031,12 @@
       <c r="R16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>8.4338796081341733E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>25</v>
       </c>
@@ -2448,8 +3091,12 @@
       <c r="R17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683784E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25</v>
       </c>
@@ -2504,8 +3151,12 @@
       <c r="R18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25</v>
       </c>
@@ -2559,6 +3210,10 @@
       </c>
       <c r="R19">
         <v>1</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683764E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2567,6 +3222,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA73BD4-689C-402C-BC8F-DC8254EF837F}">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>4.9878531370748496</v>
+      </c>
+      <c r="B2">
+        <v>0.57411646220732748</v>
+      </c>
+      <c r="C2">
+        <v>-1.64</v>
+      </c>
+      <c r="D2">
+        <v>-1.92</v>
+      </c>
+      <c r="E2">
+        <v>-1.81</v>
+      </c>
+      <c r="F2">
+        <v>-1.67</v>
+      </c>
+      <c r="G2">
+        <v>-1.85</v>
+      </c>
+      <c r="H2">
+        <v>-1.74</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>-1.36</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>4.9785421780668777</v>
+      </c>
+      <c r="B3">
+        <v>0.29716660317380256</v>
+      </c>
+      <c r="C3">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="D3">
+        <v>-1.48</v>
+      </c>
+      <c r="E3">
+        <v>-1.54</v>
+      </c>
+      <c r="F3">
+        <v>-1.62</v>
+      </c>
+      <c r="G3">
+        <v>-1.59</v>
+      </c>
+      <c r="H3">
+        <v>-1.47</v>
+      </c>
+      <c r="I3">
+        <v>-1.53</v>
+      </c>
+      <c r="J3">
+        <v>-1.2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>4.9294758200052957</v>
+      </c>
+      <c r="B4">
+        <v>0.15995580286146685</v>
+      </c>
+      <c r="C4">
+        <v>-0.46</v>
+      </c>
+      <c r="D4">
+        <v>-1.51</v>
+      </c>
+      <c r="E4">
+        <v>-1.46</v>
+      </c>
+      <c r="F4">
+        <v>-1.55</v>
+      </c>
+      <c r="G4">
+        <v>-1.42</v>
+      </c>
+      <c r="H4">
+        <v>-0.98</v>
+      </c>
+      <c r="I4">
+        <v>-1.53</v>
+      </c>
+      <c r="J4">
+        <v>-1.46</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4.8132193011041764</v>
+      </c>
+      <c r="B5">
+        <v>7.2945751025456848E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.35</v>
+      </c>
+      <c r="D5">
+        <v>-1.34</v>
+      </c>
+      <c r="E5">
+        <v>-1.44</v>
+      </c>
+      <c r="F5">
+        <v>-1.55</v>
+      </c>
+      <c r="G5">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="H5">
+        <v>-0.24</v>
+      </c>
+      <c r="I5">
+        <v>-1.53</v>
+      </c>
+      <c r="J5">
+        <v>-1.44</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4.751685080492198</v>
+      </c>
+      <c r="B6">
+        <v>4.7752927365769082E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.87</v>
+      </c>
+      <c r="D6">
+        <v>-1.3</v>
+      </c>
+      <c r="E6">
+        <v>-1.32</v>
+      </c>
+      <c r="F6">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="G6">
+        <v>-0.8</v>
+      </c>
+      <c r="H6">
+        <v>0.26</v>
+      </c>
+      <c r="I6">
+        <v>-1.22</v>
+      </c>
+      <c r="J6">
+        <v>-1.32</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4.7231095025915941</v>
+      </c>
+      <c r="B7">
+        <v>3.4197944251370883E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.2</v>
+      </c>
+      <c r="D7">
+        <v>-1.17</v>
+      </c>
+      <c r="E7">
+        <v>-1.19</v>
+      </c>
+      <c r="F7">
+        <v>-0.85</v>
+      </c>
+      <c r="G7">
+        <v>-0.52</v>
+      </c>
+      <c r="H7">
+        <v>0.61</v>
+      </c>
+      <c r="I7">
+        <v>-1.22</v>
+      </c>
+      <c r="J7">
+        <v>-1.19</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4.7094378121328804</v>
+      </c>
+      <c r="B8">
+        <v>2.9922646366081884E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.35</v>
+      </c>
+      <c r="D8">
+        <v>-1.02</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-0.72</v>
+      </c>
+      <c r="G8">
+        <v>-0.34</v>
+      </c>
+      <c r="H8">
+        <v>0.77</v>
+      </c>
+      <c r="I8">
+        <v>0.89</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1.9915790348048139</v>
+      </c>
+      <c r="B9">
+        <v>0.5812775655381871</v>
+      </c>
+      <c r="C9">
+        <v>-1.614154798725508</v>
+      </c>
+      <c r="D9">
+        <v>-1.852615520079504</v>
+      </c>
+      <c r="E9">
+        <v>-1.741725335781714</v>
+      </c>
+      <c r="F9">
+        <v>-1.852615520079504</v>
+      </c>
+      <c r="G9">
+        <v>-1.65282239968498</v>
+      </c>
+      <c r="H9">
+        <v>-1.741725335781714</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1.980691304582046</v>
+      </c>
+      <c r="B10">
+        <v>0.29595990327355498</v>
+      </c>
+      <c r="C10">
+        <v>-1.1702209576189531</v>
+      </c>
+      <c r="D10">
+        <v>-1.45846503480211</v>
+      </c>
+      <c r="E10">
+        <v>-1.514596939418587</v>
+      </c>
+      <c r="F10">
+        <v>-1.578511869553177</v>
+      </c>
+      <c r="G10">
+        <v>-1.578511869553177</v>
+      </c>
+      <c r="H10">
+        <v>-1.514596939418587</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1.9336677366397059</v>
+      </c>
+      <c r="B11">
+        <v>0.15749264397861987</v>
+      </c>
+      <c r="C11">
+        <v>-0.45624494742588528</v>
+      </c>
+      <c r="D11">
+        <v>-1.4856820007195011</v>
+      </c>
+      <c r="E11">
+        <v>-1.45846503480211</v>
+      </c>
+      <c r="F11">
+        <v>-1.545444573179084</v>
+      </c>
+      <c r="G11">
+        <v>-1.4327516043600459</v>
+      </c>
+      <c r="H11">
+        <v>-0.95957134294439284</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1.827040781438199</v>
+      </c>
+      <c r="B12">
+        <v>6.8057612907559836E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.34014801111555087</v>
+      </c>
+      <c r="D12">
+        <v>-1.3631242825001839</v>
+      </c>
+      <c r="E12">
+        <v>-1.4327516043600459</v>
+      </c>
+      <c r="F12">
+        <v>-1.578511869553177</v>
+      </c>
+      <c r="G12">
+        <v>-1.142053948747725</v>
+      </c>
+      <c r="H12">
+        <v>-0.24615343666192119</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1.7705451871527289</v>
+      </c>
+      <c r="B13">
+        <v>3.833201450680674E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.84226874999539159</v>
+      </c>
+      <c r="D13">
+        <v>-1.3024351558328691</v>
+      </c>
+      <c r="E13">
+        <v>-1.321819483905311</v>
+      </c>
+      <c r="F13">
+        <v>-1.0900496250895491</v>
+      </c>
+      <c r="G13">
+        <v>-0.79394551756687726</v>
+      </c>
+      <c r="H13">
+        <v>0.25527250510330463</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>1.7440974190635239</v>
+      </c>
+      <c r="B14">
+        <v>2.4338923735390913E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.191603425233924</v>
+      </c>
+      <c r="D14">
+        <v>-1.155938933396812</v>
+      </c>
+      <c r="E14">
+        <v>-1.184925368153227</v>
+      </c>
+      <c r="F14">
+        <v>-0.83880537935058663</v>
+      </c>
+      <c r="G14">
+        <v>-0.51645195951508038</v>
+      </c>
+      <c r="H14">
+        <v>0.59434585455452171</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>1.7322008018720709</v>
+      </c>
+      <c r="B15">
+        <v>2.0142324533150509E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.330693602277621</v>
+      </c>
+      <c r="D15">
+        <v>-0.99958018896498813</v>
+      </c>
+      <c r="E15">
+        <v>-0.99958018896498813</v>
+      </c>
+      <c r="F15">
+        <v>-0.71309653014324781</v>
+      </c>
+      <c r="G15">
+        <v>-0.33837574099736839</v>
+      </c>
+      <c r="H15">
+        <v>0.76199725943106256</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1.7069872080419219</v>
+      </c>
+      <c r="B16">
+        <v>8.4338796081341733E-3</v>
+      </c>
+      <c r="C16">
+        <v>1.818962939492804</v>
+      </c>
+      <c r="D16">
+        <v>-0.95001679396111671</v>
+      </c>
+      <c r="E16">
+        <v>-0.92231743001357314</v>
+      </c>
+      <c r="F16">
+        <v>-0.35039161049348272</v>
+      </c>
+      <c r="G16">
+        <v>0.1043479956700375</v>
+      </c>
+      <c r="H16">
+        <v>1.206967825528747</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>3.1622776601683784E-2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>-0.26750963699125352</v>
+      </c>
+      <c r="E17">
+        <v>-5.5316923634942707E-2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>-0.20910908521850771</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>-0.61134831389953581</v>
+      </c>
+      <c r="J17">
+        <v>-1.7026524217189538E-2</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0.01</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.25573196162710737</v>
+      </c>
+      <c r="E18">
+        <v>0.54236684047993289</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>-3.1804562525097141E-2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>-0.1512553277727009</v>
+      </c>
+      <c r="J18">
+        <v>0.21796179846852079</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.29563415617744288</v>
+      </c>
+      <c r="E19">
+        <v>0.54866024026583626</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>-3.076090305997338E-2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>-9.1714900819881665E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.50346445715765153</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
@@ -2933,7 +4670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -3182,7 +4919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -3311,7 +5048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -3442,7 +5179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -3571,11 +5308,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0B4D14-77A9-4737-A81E-2736F8DB61CC}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -3936,583 +5673,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01820E80-019D-4771-AB1F-FBB8D25423A7}">
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.5</v>
-      </c>
-      <c r="C2">
-        <v>44.37</v>
-      </c>
-      <c r="D2">
-        <v>8.43</v>
-      </c>
-      <c r="E2">
-        <v>16.72</v>
-      </c>
-      <c r="F2">
-        <v>39.33</v>
-      </c>
-      <c r="G2">
-        <f>3*C2/(100-C2)</f>
-        <v>2.3927736832644251</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:J2" si="0">3*D2/(100-D2)</f>
-        <v>0.27618215572785848</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>0.60230547550432267</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>1.9447832536673808</v>
-      </c>
-      <c r="K2">
-        <f>LOG10(G2)</f>
-        <v>0.37890162349538925</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ref="L2:N2" si="1">LOG10(H2)</f>
-        <v>-0.55880438484237782</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="1"/>
-        <v>-0.22018318867981979</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="1"/>
-        <v>0.28887120618536088</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>65.069999999999993</v>
-      </c>
-      <c r="D3">
-        <v>15.59</v>
-      </c>
-      <c r="E3">
-        <v>21.08</v>
-      </c>
-      <c r="F3">
-        <v>46.61</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G11" si="2">3*C3/(100-C3)</f>
-        <v>5.5886057829945592</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H11" si="3">3*D3/(100-D3)</f>
-        <v>0.55408126999170715</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I11" si="4">3*E3/(100-E3)</f>
-        <v>0.8013177901672579</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J11" si="5">3*F3/(100-F3)</f>
-        <v>2.6190297808578382</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K11" si="6">LOG10(G3)</f>
-        <v>0.74730347581587131</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L11" si="7">LOG10(H3)</f>
-        <v>-0.25642653036117807</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M11" si="8">LOG10(I3)</f>
-        <v>-9.619521531998218E-2</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N11" si="9">LOG10(J3)</f>
-        <v>0.41814043679433915</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-      <c r="C4">
-        <v>68.66</v>
-      </c>
-      <c r="D4">
-        <v>20.18</v>
-      </c>
-      <c r="E4">
-        <v>24.55</v>
-      </c>
-      <c r="F4">
-        <v>49.74</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>6.5724313975749826</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
-        <v>0.75845652718616896</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="4"/>
-        <v>0.97614314115308154</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="5"/>
-        <v>2.9689614007162755</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="6"/>
-        <v>0.81772606167682238</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="7"/>
-        <v>-0.12006930682745025</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="8"/>
-        <v>-1.0486492932958912E-2</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="9"/>
-        <v>0.47260455139702245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.5</v>
-      </c>
-      <c r="C5">
-        <v>74.7</v>
-      </c>
-      <c r="D5">
-        <v>28.24</v>
-      </c>
-      <c r="E5">
-        <v>32.5</v>
-      </c>
-      <c r="F5">
-        <v>52.98</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>8.8577075098814255</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>1.1806020066889631</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="4"/>
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="5"/>
-        <v>3.3802637175669923</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="6"/>
-        <v>0.94732133535924345</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="7"/>
-        <v>7.2103517063392866E-2</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="8"/>
-        <v>0.15970084286751188</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="9"/>
-        <v>0.52895058389195404</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.5</v>
-      </c>
-      <c r="C6">
-        <v>77.05</v>
-      </c>
-      <c r="D6">
-        <v>38.65</v>
-      </c>
-      <c r="E6">
-        <v>36.75</v>
-      </c>
-      <c r="F6">
-        <v>58.92</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>10.071895424836599</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>1.8899755501222493</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
-        <v>1.7430830039525691</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="5"/>
-        <v>4.3028237585199607</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="6"/>
-        <v>1.0031112079008204</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="7"/>
-        <v>0.27645618591098309</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="8"/>
-        <v>0.2413180682920206</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="9"/>
-        <v>0.63375355796501509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>0.19</v>
-      </c>
-      <c r="C7">
-        <v>34.67</v>
-      </c>
-      <c r="D7">
-        <v>64.37</v>
-      </c>
-      <c r="E7">
-        <v>25.98</v>
-      </c>
-      <c r="F7">
-        <v>44.13</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>1.5920710240318385</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>5.4198708953129398</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
-        <v>1.0529586598216698</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="5"/>
-        <v>2.3696080186146413</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="6"/>
-        <v>0.20196243818624662</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="7"/>
-        <v>0.73398894149761618</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="8"/>
-        <v>2.2411320697578532E-2</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="9"/>
-        <v>0.37467651080669057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>0.5</v>
-      </c>
-      <c r="C8">
-        <v>66.14</v>
-      </c>
-      <c r="D8">
-        <v>15.43</v>
-      </c>
-      <c r="E8">
-        <v>21.29</v>
-      </c>
-      <c r="F8">
-        <v>46.64</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>5.8600118133490851</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>0.54735721887194044</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
-        <v>0.81145978909922489</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="5"/>
-        <v>2.6221889055472265</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="6"/>
-        <v>0.76789849152443013</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="7"/>
-        <v>-0.26172914980845402</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="8"/>
-        <v>-9.0732996238242117E-2</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="9"/>
-        <v>0.41866397556212759</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0.99</v>
-      </c>
-      <c r="C9">
-        <v>84.82</v>
-      </c>
-      <c r="D9">
-        <v>7.57</v>
-      </c>
-      <c r="E9">
-        <v>16.27</v>
-      </c>
-      <c r="F9">
-        <v>49.43</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>16.762845849802364</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>0.2456994482310938</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>0.5829451809387316</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="5"/>
-        <v>2.9323709709313821</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="6"/>
-        <v>1.2243477512838914</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="7"/>
-        <v>-0.60959581881686786</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="8"/>
-        <v>-0.23437228355177228</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="9"/>
-        <v>0.46721891154789469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>1.49</v>
-      </c>
-      <c r="C10">
-        <v>95.26</v>
-      </c>
-      <c r="D10">
-        <v>6.91</v>
-      </c>
-      <c r="E10">
-        <v>9.01</v>
-      </c>
-      <c r="F10">
-        <v>57.16</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>60.291139240506403</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>0.22268772155978087</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
-        <v>0.29706561160567097</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="5"/>
-        <v>4.0028011204481784</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="6"/>
-        <v>1.7802534902211495</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="7"/>
-        <v>-0.65230372820996729</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="8"/>
-        <v>-0.52714761933160048</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="9"/>
-        <v>0.60236401267877693</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>1.79</v>
-      </c>
-      <c r="C11">
-        <v>96.42</v>
-      </c>
-      <c r="D11">
-        <v>0.88</v>
-      </c>
-      <c r="E11">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="F11">
-        <v>70.180000000000007</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>80.79888268156428</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>2.6634382566585957E-2</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>0.27403688748226562</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="5"/>
-        <v>7.0603621730382313</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="6"/>
-        <v>1.9074053552227763</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="7"/>
-        <v>-1.574557366498176</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="8"/>
-        <v>-0.56219097385209027</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="9"/>
-        <v>0.8488269794820742</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/prommis/solvent_extraction/data for parmest.xlsx
+++ b/src/prommis/solvent_extraction/data for parmest.xlsx
@@ -1,49 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad00105\Desktop\Model_software\prommis\src\prommis\solvent_extraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apdgh\Desktop\code work\prommis\src\prommis\solvent_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877232CD-7D9A-439D-9300-35223FDB4A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD8F15A-5B79-489D-9B9E-8DC2B597BF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="1785" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId3"/>
-    <sheet name="model validation new" sheetId="3" r:id="rId4"/>
-    <sheet name="model validation" sheetId="4" r:id="rId5"/>
-    <sheet name="parameter values" sheetId="5" r:id="rId6"/>
-    <sheet name="parameter values feed dosage" sheetId="6" r:id="rId7"/>
-    <sheet name="parameter values out dosage" sheetId="7" r:id="rId8"/>
-    <sheet name="impurities new" sheetId="10" r:id="rId9"/>
-    <sheet name="impurities" sheetId="9" r:id="rId10"/>
-    <sheet name="new parameter values" sheetId="8" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="model validation new" sheetId="4" r:id="rId4"/>
+    <sheet name="model validation" sheetId="5" r:id="rId5"/>
+    <sheet name="parameter values" sheetId="6" r:id="rId6"/>
+    <sheet name="parameter values feed dosage" sheetId="7" r:id="rId7"/>
+    <sheet name="parameter values out dosage" sheetId="8" r:id="rId8"/>
+    <sheet name="impurities new" sheetId="9" r:id="rId9"/>
+    <sheet name="impurities" sheetId="10" r:id="rId10"/>
+    <sheet name="new parameter values" sheetId="11" r:id="rId11"/>
+    <sheet name="Fe only" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t>dosage</t>
   </si>
@@ -99,6 +87,9 @@
     <t>w_Pr</t>
   </si>
   <si>
+    <t>Acid conc (M)</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -147,6 +138,30 @@
     <t>b2</t>
   </si>
   <si>
+    <t>logD Sc</t>
+  </si>
+  <si>
+    <t>logD Fe</t>
+  </si>
+  <si>
+    <t>logD Al</t>
+  </si>
+  <si>
+    <t>logD Ca</t>
+  </si>
+  <si>
+    <t>w_Sc</t>
+  </si>
+  <si>
+    <t>w_Fe</t>
+  </si>
+  <si>
+    <t>w_Al</t>
+  </si>
+  <si>
+    <t>w_Ca</t>
+  </si>
+  <si>
     <t>E Sc</t>
   </si>
   <si>
@@ -171,31 +186,19 @@
     <t>D Ca</t>
   </si>
   <si>
-    <t>logD Sc</t>
+    <t>ascorbic (g/L)</t>
   </si>
   <si>
-    <t>logD Fe</t>
+    <t>E</t>
   </si>
   <si>
-    <t>logD Al</t>
+    <t>D</t>
   </si>
   <si>
-    <t>logD Ca</t>
+    <t>logD</t>
   </si>
   <si>
-    <t>w_Sc</t>
-  </si>
-  <si>
-    <t>w_Fe</t>
-  </si>
-  <si>
-    <t>w_Al</t>
-  </si>
-  <si>
-    <t>w_Ca</t>
-  </si>
-  <si>
-    <t>Acid conc (M)</t>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -617,9 +619,9 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4.9878531370748496</v>
       </c>
@@ -707,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4.9785421780668777</v>
       </c>
@@ -751,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4.9294758200052957</v>
       </c>
@@ -795,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4.8132193011041764</v>
       </c>
@@ -839,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4.751685080492198</v>
       </c>
@@ -883,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4.7231095025915941</v>
       </c>
@@ -927,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4.7094378121328804</v>
       </c>
@@ -971,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.9915790348048139</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.980691304582046</v>
       </c>
@@ -1059,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.9336677366397059</v>
       </c>
@@ -1103,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.827040781438199</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.7705451871527289</v>
       </c>
@@ -1191,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.7440974190635239</v>
       </c>
@@ -1235,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.7322008018720709</v>
       </c>
@@ -1279,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.7069872080419219</v>
       </c>
@@ -1329,16 +1331,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01820E80-019D-4771-AB1F-FBB8D25423A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N11"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1346,43 +1348,43 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1402,39 +1404,39 @@
         <v>39.33</v>
       </c>
       <c r="G2">
-        <f>3*C2/(100-C2)</f>
+        <f t="shared" ref="G2:G11" si="0">3*C2/(100-C2)</f>
         <v>2.3927736832644251</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:J2" si="0">3*D2/(100-D2)</f>
+        <f t="shared" ref="H2:H11" si="1">3*D2/(100-D2)</f>
         <v>0.27618215572785848</v>
       </c>
       <c r="I2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I2:I11" si="2">3*E2/(100-E2)</f>
         <v>0.60230547550432267</v>
       </c>
       <c r="J2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J2:J11" si="3">3*F2/(100-F2)</f>
         <v>1.9447832536673808</v>
       </c>
       <c r="K2">
-        <f>LOG10(G2)</f>
+        <f t="shared" ref="K2:K11" si="4">LOG10(G2)</f>
         <v>0.37890162349538925</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:N2" si="1">LOG10(H2)</f>
+        <f t="shared" ref="L2:L11" si="5">LOG10(H2)</f>
         <v>-0.55880438484237782</v>
       </c>
       <c r="M2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M2:M11" si="6">LOG10(I2)</f>
         <v>-0.22018318867981979</v>
       </c>
       <c r="N2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N2:N11" si="7">LOG10(J2)</f>
         <v>0.28887120618536088</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1454,39 +1456,39 @@
         <v>46.61</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="2">3*C3/(100-C3)</f>
+        <f t="shared" si="0"/>
         <v>5.5886057829945592</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="3">3*D3/(100-D3)</f>
+        <f t="shared" si="1"/>
         <v>0.55408126999170715</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="4">3*E3/(100-E3)</f>
+        <f t="shared" si="2"/>
         <v>0.8013177901672579</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J11" si="5">3*F3/(100-F3)</f>
+        <f t="shared" si="3"/>
         <v>2.6190297808578382</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K11" si="6">LOG10(G3)</f>
+        <f t="shared" si="4"/>
         <v>0.74730347581587131</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L11" si="7">LOG10(H3)</f>
+        <f t="shared" si="5"/>
         <v>-0.25642653036117807</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M11" si="8">LOG10(I3)</f>
+        <f t="shared" si="6"/>
         <v>-9.619521531998218E-2</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N11" si="9">LOG10(J3)</f>
+        <f t="shared" si="7"/>
         <v>0.41814043679433915</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1506,39 +1508,39 @@
         <v>49.74</v>
       </c>
       <c r="G4">
+        <f t="shared" si="0"/>
+        <v>6.5724313975749826</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.75845652718616896</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="2"/>
-        <v>6.5724313975749826</v>
-      </c>
-      <c r="H4">
+        <v>0.97614314115308154</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="3"/>
-        <v>0.75845652718616896</v>
-      </c>
-      <c r="I4">
+        <v>2.9689614007162755</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="4"/>
-        <v>0.97614314115308154</v>
-      </c>
-      <c r="J4">
+        <v>0.81772606167682238</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="5"/>
-        <v>2.9689614007162755</v>
-      </c>
-      <c r="K4">
+        <v>-0.12006930682745025</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="6"/>
-        <v>0.81772606167682238</v>
-      </c>
-      <c r="L4">
+        <v>-1.0486492932958912E-2</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="7"/>
-        <v>-0.12006930682745025</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="8"/>
-        <v>-1.0486492932958912E-2</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="9"/>
         <v>0.47260455139702245</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1558,39 +1560,39 @@
         <v>52.98</v>
       </c>
       <c r="G5">
+        <f t="shared" si="0"/>
+        <v>8.8577075098814255</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1.1806020066889631</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>8.8577075098814255</v>
-      </c>
-      <c r="H5">
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="3"/>
-        <v>1.1806020066889631</v>
-      </c>
-      <c r="I5">
+        <v>3.3802637175669923</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="4"/>
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="J5">
+        <v>0.94732133535924345</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="5"/>
-        <v>3.3802637175669923</v>
-      </c>
-      <c r="K5">
+        <v>7.2103517063392866E-2</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="6"/>
-        <v>0.94732133535924345</v>
-      </c>
-      <c r="L5">
+        <v>0.15970084286751188</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="7"/>
-        <v>7.2103517063392866E-2</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="8"/>
-        <v>0.15970084286751188</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="9"/>
         <v>0.52895058389195404</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1610,39 +1612,39 @@
         <v>58.92</v>
       </c>
       <c r="G6">
+        <f t="shared" si="0"/>
+        <v>10.071895424836599</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1.8899755501222493</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>10.071895424836599</v>
-      </c>
-      <c r="H6">
+        <v>1.7430830039525691</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="3"/>
-        <v>1.8899755501222493</v>
-      </c>
-      <c r="I6">
+        <v>4.3028237585199607</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="4"/>
-        <v>1.7430830039525691</v>
-      </c>
-      <c r="J6">
+        <v>1.0031112079008204</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="5"/>
-        <v>4.3028237585199607</v>
-      </c>
-      <c r="K6">
+        <v>0.27645618591098309</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="6"/>
-        <v>1.0031112079008204</v>
-      </c>
-      <c r="L6">
+        <v>0.2413180682920206</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="7"/>
-        <v>0.27645618591098309</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="8"/>
-        <v>0.2413180682920206</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="9"/>
         <v>0.63375355796501509</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1662,39 +1664,39 @@
         <v>44.13</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.5920710240318385</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>5.4198708953129398</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>1.5920710240318385</v>
-      </c>
-      <c r="H7">
+        <v>1.0529586598216698</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="3"/>
-        <v>5.4198708953129398</v>
-      </c>
-      <c r="I7">
+        <v>2.3696080186146413</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="4"/>
-        <v>1.0529586598216698</v>
-      </c>
-      <c r="J7">
+        <v>0.20196243818624662</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.3696080186146413</v>
-      </c>
-      <c r="K7">
+        <v>0.73398894149761618</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="6"/>
-        <v>0.20196243818624662</v>
-      </c>
-      <c r="L7">
+        <v>2.2411320697578532E-2</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="7"/>
-        <v>0.73398894149761618</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="8"/>
-        <v>2.2411320697578532E-2</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="9"/>
         <v>0.37467651080669057</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1714,39 +1716,39 @@
         <v>46.64</v>
       </c>
       <c r="G8">
+        <f t="shared" si="0"/>
+        <v>5.8600118133490851</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.54735721887194044</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>5.8600118133490851</v>
-      </c>
-      <c r="H8">
+        <v>0.81145978909922489</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="3"/>
-        <v>0.54735721887194044</v>
-      </c>
-      <c r="I8">
+        <v>2.6221889055472265</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="4"/>
-        <v>0.81145978909922489</v>
-      </c>
-      <c r="J8">
+        <v>0.76789849152443013</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="5"/>
-        <v>2.6221889055472265</v>
-      </c>
-      <c r="K8">
+        <v>-0.26172914980845402</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="6"/>
-        <v>0.76789849152443013</v>
-      </c>
-      <c r="L8">
+        <v>-9.0732996238242117E-2</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="7"/>
-        <v>-0.26172914980845402</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="8"/>
-        <v>-9.0732996238242117E-2</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="9"/>
         <v>0.41866397556212759</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1766,39 +1768,39 @@
         <v>49.43</v>
       </c>
       <c r="G9">
+        <f t="shared" si="0"/>
+        <v>16.762845849802364</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.2456994482310938</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
-        <v>16.762845849802364</v>
-      </c>
-      <c r="H9">
+        <v>0.5829451809387316</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="3"/>
-        <v>0.2456994482310938</v>
-      </c>
-      <c r="I9">
+        <v>2.9323709709313821</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="4"/>
-        <v>0.5829451809387316</v>
-      </c>
-      <c r="J9">
+        <v>1.2243477512838914</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="5"/>
-        <v>2.9323709709313821</v>
-      </c>
-      <c r="K9">
+        <v>-0.60959581881686786</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="6"/>
-        <v>1.2243477512838914</v>
-      </c>
-      <c r="L9">
+        <v>-0.23437228355177228</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="7"/>
-        <v>-0.60959581881686786</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="8"/>
-        <v>-0.23437228355177228</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="9"/>
         <v>0.46721891154789469</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1818,39 +1820,39 @@
         <v>57.16</v>
       </c>
       <c r="G10">
+        <f t="shared" si="0"/>
+        <v>60.291139240506403</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.22268772155978087</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="2"/>
-        <v>60.291139240506403</v>
-      </c>
-      <c r="H10">
+        <v>0.29706561160567097</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.22268772155978087</v>
-      </c>
-      <c r="I10">
+        <v>4.0028011204481784</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="4"/>
-        <v>0.29706561160567097</v>
-      </c>
-      <c r="J10">
+        <v>1.7802534902211495</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="5"/>
-        <v>4.0028011204481784</v>
-      </c>
-      <c r="K10">
+        <v>-0.65230372820996729</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="6"/>
-        <v>1.7802534902211495</v>
-      </c>
-      <c r="L10">
+        <v>-0.52714761933160048</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="7"/>
-        <v>-0.65230372820996729</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="8"/>
-        <v>-0.52714761933160048</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="9"/>
         <v>0.60236401267877693</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1870,35 +1872,35 @@
         <v>70.180000000000007</v>
       </c>
       <c r="G11">
+        <f t="shared" si="0"/>
+        <v>80.79888268156428</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>2.6634382566585957E-2</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="2"/>
-        <v>80.79888268156428</v>
-      </c>
-      <c r="H11">
+        <v>0.27403688748226562</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="3"/>
-        <v>2.6634382566585957E-2</v>
-      </c>
-      <c r="I11">
+        <v>7.0603621730382313</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="4"/>
-        <v>0.27403688748226562</v>
-      </c>
-      <c r="J11">
+        <v>1.9074053552227763</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="5"/>
-        <v>7.0603621730382313</v>
-      </c>
-      <c r="K11">
+        <v>-1.574557366498176</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="6"/>
-        <v>1.9074053552227763</v>
-      </c>
-      <c r="L11">
+        <v>-0.56219097385209027</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="7"/>
-        <v>-1.574557366498176</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="8"/>
-        <v>-0.56219097385209027</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="9"/>
         <v>0.8488269794820742</v>
       </c>
     </row>
@@ -1908,165 +1910,1172 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>1.9230277973689189</v>
+        <v>1.923027797524254</v>
       </c>
       <c r="C2">
-        <v>7.4853223749340697E-2</v>
+        <v>7.4853223698401292E-2</v>
       </c>
       <c r="D2">
-        <v>-2.186903544087802</v>
+        <v>-2.186903544290268</v>
       </c>
       <c r="E2">
-        <v>6.2819968088334883E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.2864096774320477E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0.40934781349656968</v>
+      </c>
+      <c r="C3">
+        <v>2.1843946138202071E-2</v>
+      </c>
+      <c r="D3">
+        <v>-1.9088874245070619</v>
+      </c>
+      <c r="E3">
+        <v>4.0077203456387607E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.31947915931938992</v>
+      </c>
+      <c r="C4">
+        <v>2.9492740793582661E-2</v>
+      </c>
+      <c r="D4">
+        <v>-1.8149894692393209</v>
+      </c>
+      <c r="E4">
+        <v>1.113666030224005E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0.78814835469677391</v>
+      </c>
+      <c r="C5">
+        <v>1.012490330291782E-2</v>
+      </c>
+      <c r="D5">
+        <v>-2.1064222769976211</v>
+      </c>
+      <c r="E5">
+        <v>4.1511253479831678E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>1.0961473032578659</v>
+      </c>
+      <c r="C6">
+        <v>5.8248148904600356E-9</v>
+      </c>
+      <c r="D6">
+        <v>-2.316138292405574</v>
+      </c>
+      <c r="E6">
+        <v>0.20823224027600179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>1.689088275988571</v>
+      </c>
+      <c r="C7">
+        <v>5.773985786665127E-2</v>
+      </c>
+      <c r="D7">
+        <v>-2.3544739532365888</v>
+      </c>
+      <c r="E7">
+        <v>1.0917406253311379E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3">
-        <v>0.40934779068598548</v>
-      </c>
-      <c r="C3">
-        <v>2.184394953888762E-2</v>
-      </c>
-      <c r="D3">
-        <v>-1.9088873395697761</v>
-      </c>
-      <c r="E3">
-        <v>4.0077052565401582E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B8">
+        <v>0.54092509985878701</v>
+      </c>
+      <c r="C8">
+        <v>2.2249778860812559E-7</v>
+      </c>
+      <c r="D8">
+        <v>-2.5048917635523988</v>
+      </c>
+      <c r="E8">
+        <v>0.81413522217104894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>0.31947783967772719</v>
-      </c>
-      <c r="C4">
-        <v>2.9492900539413839E-2</v>
-      </c>
-      <c r="D4">
-        <v>-1.814985366872192</v>
-      </c>
-      <c r="E4">
-        <v>4.3156483939276691E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>0.76409694343945378</v>
-      </c>
-      <c r="C5">
-        <v>2.1853172503817981E-2</v>
-      </c>
-      <c r="D5">
-        <v>-2.1534567137894132</v>
-      </c>
-      <c r="E5">
-        <v>8.6166082184064262E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>1.09614730348912</v>
-      </c>
-      <c r="C6">
-        <v>5.7992406444091798E-9</v>
-      </c>
-      <c r="D6">
-        <v>-2.316138292964721</v>
-      </c>
-      <c r="E6">
-        <v>0.20823224113088351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>1.689088275320092</v>
-      </c>
-      <c r="C7">
-        <v>5.7739858084018658E-2</v>
-      </c>
-      <c r="D7">
-        <v>-2.3544739523307872</v>
-      </c>
-      <c r="E7">
-        <v>1.0897915653979019E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>0.54092522480101835</v>
-      </c>
-      <c r="C8">
-        <v>2.164310043545248E-7</v>
-      </c>
-      <c r="D8">
-        <v>-2.5048920145960709</v>
-      </c>
-      <c r="E8">
-        <v>0.81413544019443052</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="B9">
-        <v>0.55355055089135108</v>
+        <v>0.55355051558094315</v>
       </c>
       <c r="C9">
-        <v>1.274609263782018E-7</v>
+        <v>1.2954555988138559E-7</v>
       </c>
       <c r="D9">
-        <v>-3.0154258280186022</v>
+        <v>-3.0154257342566648</v>
       </c>
       <c r="E9">
-        <v>1.5329850440033119</v>
+        <v>1.532984952799564</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.5</v>
+      </c>
+      <c r="B2">
+        <v>0.75908372827804105</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>3.3548387096774199</v>
+      </c>
+      <c r="E2">
+        <v>3.4712950600801068E-2</v>
+      </c>
+      <c r="F2">
+        <v>-1.459508469728648</v>
+      </c>
+      <c r="G2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.5</v>
+      </c>
+      <c r="B3">
+        <v>0.922432859399684</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>3.87096774193548</v>
+      </c>
+      <c r="E3">
+        <v>4.0268456375838882E-2</v>
+      </c>
+      <c r="F3">
+        <v>-1.3950350180286311</v>
+      </c>
+      <c r="G3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.5</v>
+      </c>
+      <c r="B4">
+        <v>1.24391785150078</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6.9677419354838497</v>
+      </c>
+      <c r="E4">
+        <v>7.4895977808598913E-2</v>
+      </c>
+      <c r="F4">
+        <v>-1.1255415048964621</v>
+      </c>
+      <c r="G4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.5</v>
+      </c>
+      <c r="B5">
+        <v>1.4541864139020499</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>17.5483870967741</v>
+      </c>
+      <c r="E5">
+        <v>0.21283255086071851</v>
+      </c>
+      <c r="F5">
+        <v>-0.67196194978818546</v>
+      </c>
+      <c r="G5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>1.5984202211690299</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>25.2903225806451</v>
+      </c>
+      <c r="E6">
+        <v>0.33851468048359129</v>
+      </c>
+      <c r="F6">
+        <v>-0.47042249237096162</v>
+      </c>
+      <c r="G6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.5</v>
+      </c>
+      <c r="B7">
+        <v>1.81216429699842</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>32.774193548387103</v>
+      </c>
+      <c r="E7">
+        <v>0.48752399232245702</v>
+      </c>
+      <c r="F7">
+        <v>-0.31200400667958628</v>
+      </c>
+      <c r="G7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1.25</v>
+      </c>
+      <c r="B8">
+        <v>0.75908372827804105</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6.9677419354838497</v>
+      </c>
+      <c r="E8">
+        <v>7.4895977808598913E-2</v>
+      </c>
+      <c r="F8">
+        <v>-1.1255415048964621</v>
+      </c>
+      <c r="G8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1.25</v>
+      </c>
+      <c r="B9">
+        <v>0.89810426540284305</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="F9">
+        <v>-1.060697840353612</v>
+      </c>
+      <c r="G9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.25</v>
+      </c>
+      <c r="B10">
+        <v>1.23522906793048</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>20.387096774193498</v>
+      </c>
+      <c r="E10">
+        <v>0.25607779578606082</v>
+      </c>
+      <c r="F10">
+        <v>-0.59162807707882048</v>
+      </c>
+      <c r="G10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.25</v>
+      </c>
+      <c r="B11">
+        <v>1.3690363349131101</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>30.451612903225701</v>
+      </c>
+      <c r="E11">
+        <v>0.43784786641929291</v>
+      </c>
+      <c r="F11">
+        <v>-0.35867676221663419</v>
+      </c>
+      <c r="G11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.25</v>
+      </c>
+      <c r="B12">
+        <v>1.5897314375987299</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>39.4838709677419</v>
+      </c>
+      <c r="E12">
+        <v>0.65245202558635296</v>
+      </c>
+      <c r="F12">
+        <v>-0.18545141623350389</v>
+      </c>
+      <c r="G12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.25</v>
+      </c>
+      <c r="B13">
+        <v>1.76524486571879</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>45.677419354838698</v>
+      </c>
+      <c r="E13">
+        <v>0.84085510688836063</v>
+      </c>
+      <c r="F13">
+        <v>-7.5278833809880707E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.75039494470774004</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>12.1290322580645</v>
+      </c>
+      <c r="E14">
+        <v>0.13803230543318629</v>
+      </c>
+      <c r="F14">
+        <v>-0.86001925831308712</v>
+      </c>
+      <c r="G14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0.89984202211690301</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>20.645161290322498</v>
+      </c>
+      <c r="E15">
+        <v>0.26016260162601501</v>
+      </c>
+      <c r="F15">
+        <v>-0.58475513311949412</v>
+      </c>
+      <c r="G15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1.20047393364928</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>31.225806451612801</v>
+      </c>
+      <c r="E16">
+        <v>0.45403377110693971</v>
+      </c>
+      <c r="F16">
+        <v>-0.34291184304614308</v>
+      </c>
+      <c r="G16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1.4020537124802499</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>42.580645161290299</v>
+      </c>
+      <c r="E17">
+        <v>0.74157303370786443</v>
+      </c>
+      <c r="F17">
+        <v>-0.12984607110304461</v>
+      </c>
+      <c r="G17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1.6018957345971501</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>52.129032258064498</v>
+      </c>
+      <c r="E18">
+        <v>1.0889487870619941</v>
+      </c>
+      <c r="F18">
+        <v>3.7007455495558783E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.75</v>
+      </c>
+      <c r="B19">
+        <v>0.76951026856240101</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>19.612903225806399</v>
+      </c>
+      <c r="E19">
+        <v>0.24398073836275999</v>
+      </c>
+      <c r="F19">
+        <v>-0.61264445871439843</v>
+      </c>
+      <c r="G19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.75</v>
+      </c>
+      <c r="B20">
+        <v>0.87725118483412301</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>28.129032258064498</v>
+      </c>
+      <c r="E20">
+        <v>0.3913824057450625</v>
+      </c>
+      <c r="F20">
+        <v>-0.40739870156912439</v>
+      </c>
+      <c r="G20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.75</v>
+      </c>
+      <c r="B21">
+        <v>1.25608214849921</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>41.0322580645161</v>
+      </c>
+      <c r="E21">
+        <v>0.69584245076586348</v>
+      </c>
+      <c r="F21">
+        <v>-0.15748908008541809</v>
+      </c>
+      <c r="G21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.75</v>
+      </c>
+      <c r="B22">
+        <v>1.4037914691943101</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>52.645161290322498</v>
+      </c>
+      <c r="E22">
+        <v>1.111716621253402</v>
+      </c>
+      <c r="F22">
+        <v>4.5994098837789217E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.75</v>
+      </c>
+      <c r="B23">
+        <v>1.56887835703001</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>59.096774193548299</v>
+      </c>
+      <c r="E23">
+        <v>1.444794952681383</v>
+      </c>
+      <c r="F23">
+        <v>0.15980621578611609</v>
+      </c>
+      <c r="G23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.5</v>
+      </c>
+      <c r="B24">
+        <v>0.74865718799367997</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>25.5483870967741</v>
+      </c>
+      <c r="E24">
+        <v>0.3431542461005182</v>
+      </c>
+      <c r="F24">
+        <v>-0.46451062289420247</v>
+      </c>
+      <c r="G24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.5</v>
+      </c>
+      <c r="B25">
+        <v>0.90157977883096296</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>36.903225806451601</v>
+      </c>
+      <c r="E25">
+        <v>0.58486707566462137</v>
+      </c>
+      <c r="F25">
+        <v>-0.2329428259945775</v>
+      </c>
+      <c r="G25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.5</v>
+      </c>
+      <c r="B26">
+        <v>1.20047393364928</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>47.4838709677419</v>
+      </c>
+      <c r="E26">
+        <v>0.90417690417690288</v>
+      </c>
+      <c r="F26">
+        <v>-4.3746590551702998E-2</v>
+      </c>
+      <c r="G26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.5</v>
+      </c>
+      <c r="B27">
+        <v>1.4003159557661899</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>62.193548387096698</v>
+      </c>
+      <c r="E27">
+        <v>1.6450511945392441</v>
+      </c>
+      <c r="F27">
+        <v>0.21617941788473871</v>
+      </c>
+      <c r="G27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.5</v>
+      </c>
+      <c r="B28">
+        <v>1.6001579778830901</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>73.0322580645161</v>
+      </c>
+      <c r="E28">
+        <v>2.7081339712918622</v>
+      </c>
+      <c r="F28">
+        <v>0.43267014507721679</v>
+      </c>
+      <c r="G28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.25</v>
+      </c>
+      <c r="B29">
+        <v>0.73475513428119998</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>33.5483870967741</v>
+      </c>
+      <c r="E29">
+        <v>0.50485436893203661</v>
+      </c>
+      <c r="F29">
+        <v>-0.29683388107037489</v>
+      </c>
+      <c r="G29">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.25</v>
+      </c>
+      <c r="B30">
+        <v>0.90157977883096296</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>45.935483870967701</v>
+      </c>
+      <c r="E30">
+        <v>0.84964200477326834</v>
+      </c>
+      <c r="F30">
+        <v>-7.0764024993420827E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.25</v>
+      </c>
+      <c r="B31">
+        <v>1.1170616113744001</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>55.741935483870897</v>
+      </c>
+      <c r="E31">
+        <v>1.259475218658888</v>
+      </c>
+      <c r="F31">
+        <v>0.1001896267721403</v>
+      </c>
+      <c r="G31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.25</v>
+      </c>
+      <c r="B32">
+        <v>1.38988941548183</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>72.516129032257993</v>
+      </c>
+      <c r="E32">
+        <v>2.6384976525821502</v>
+      </c>
+      <c r="F32">
+        <v>0.42135671213032178</v>
+      </c>
+      <c r="G32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.25</v>
+      </c>
+      <c r="B33">
+        <v>1.57930489731437</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>83.354838709677395</v>
+      </c>
+      <c r="E33">
+        <v>5.0077519379844873</v>
+      </c>
+      <c r="F33">
+        <v>0.69964280769583431</v>
+      </c>
+      <c r="G33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>8.43</v>
+      </c>
+      <c r="E34">
+        <v>0.27618215572785848</v>
+      </c>
+      <c r="F34">
+        <v>-0.55880438484237782</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0.5</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>15.59</v>
+      </c>
+      <c r="E35">
+        <v>0.55408126999170715</v>
+      </c>
+      <c r="F35">
+        <v>-0.25642653036117807</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>20.18</v>
+      </c>
+      <c r="E36">
+        <v>0.75845652718616896</v>
+      </c>
+      <c r="F36">
+        <v>-0.12006930682745021</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>28.24</v>
+      </c>
+      <c r="E37">
+        <v>1.1806020066889631</v>
+      </c>
+      <c r="F37">
+        <v>7.2103517063392866E-2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>38.65</v>
+      </c>
+      <c r="E38">
+        <v>1.889975550122249</v>
+      </c>
+      <c r="F38">
+        <v>0.27645618591098309</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0.19</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>64.37</v>
+      </c>
+      <c r="E39">
+        <v>5.4198708953129398</v>
+      </c>
+      <c r="F39">
+        <v>0.73398894149761618</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0.5</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>15.43</v>
+      </c>
+      <c r="E40">
+        <v>0.54735721887194044</v>
+      </c>
+      <c r="F40">
+        <v>-0.26172914980845402</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0.99</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>7.57</v>
+      </c>
+      <c r="E41">
+        <v>0.2456994482310938</v>
+      </c>
+      <c r="F41">
+        <v>-0.60959581881686786</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>1.49</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>6.91</v>
+      </c>
+      <c r="E42">
+        <v>0.22268772155978089</v>
+      </c>
+      <c r="F42">
+        <v>-0.65230372820996729</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1.79</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>0.88</v>
+      </c>
+      <c r="E43">
+        <v>2.663438256658596E-2</v>
+      </c>
+      <c r="F43">
+        <v>-1.574557366498176</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2075,12 +3084,12 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T19"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2136,7 +3145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>4.9878531370748496</v>
       </c>
@@ -2192,11 +3201,11 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <f>10^(-B2)</f>
+        <f t="shared" ref="T2:T19" si="0">10^(-B2)</f>
         <v>0.57411646220732748</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>4.9785421780668777</v>
       </c>
@@ -2252,11 +3261,11 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T19" si="0">10^(-B3)</f>
+        <f t="shared" si="0"/>
         <v>0.29716660317380256</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>4.9294758200052957</v>
       </c>
@@ -2316,7 +3325,7 @@
         <v>0.15995580286146685</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4.8132193011041764</v>
       </c>
@@ -2376,7 +3385,7 @@
         <v>7.2945751025456848E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4.751685080492198</v>
       </c>
@@ -2436,7 +3445,7 @@
         <v>4.7752927365769082E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4.7231095025915941</v>
       </c>
@@ -2496,7 +3505,7 @@
         <v>3.4197944251370883E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4.7094378121328804</v>
       </c>
@@ -2556,7 +3565,7 @@
         <v>2.9922646366081884E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>1.9915790348048139</v>
       </c>
@@ -2616,7 +3625,7 @@
         <v>0.5812775655381871</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>1.980691304582046</v>
       </c>
@@ -2676,7 +3685,7 @@
         <v>0.29595990327355498</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1.9336677366397059</v>
       </c>
@@ -2736,7 +3745,7 @@
         <v>0.15749264397861987</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>1.827040781438199</v>
       </c>
@@ -2777,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -2796,7 +3805,7 @@
         <v>6.8057612907559836E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>1.7705451871527289</v>
       </c>
@@ -2856,7 +3865,7 @@
         <v>3.833201450680674E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>1.7440974190635239</v>
       </c>
@@ -2916,7 +3925,7 @@
         <v>2.4338923735390913E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1.7322008018720709</v>
       </c>
@@ -2976,7 +3985,7 @@
         <v>2.0142324533150509E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>1.7069872080419219</v>
       </c>
@@ -3036,7 +4045,7 @@
         <v>8.4338796081341733E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>25</v>
       </c>
@@ -3096,7 +4105,7 @@
         <v>3.1622776601683784E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>25</v>
       </c>
@@ -3156,7 +4165,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>25</v>
       </c>
@@ -3222,24 +4231,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA73BD4-689C-402C-BC8F-DC8254EF837F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -3290,7 +4299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>4.9878531370748496</v>
       </c>
@@ -3346,12 +4355,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>4.9785421780668777</v>
       </c>
       <c r="B3">
-        <v>0.29716660317380256</v>
+        <v>0.29716660317380261</v>
       </c>
       <c r="C3">
         <v>-1.1499999999999999</v>
@@ -3402,12 +4411,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>4.9294758200052957</v>
       </c>
       <c r="B4">
-        <v>0.15995580286146685</v>
+        <v>0.15995580286146691</v>
       </c>
       <c r="C4">
         <v>-0.46</v>
@@ -3458,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4.8132193011041764</v>
       </c>
@@ -3514,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4.751685080492198</v>
       </c>
@@ -3570,7 +4579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4.7231095025915941</v>
       </c>
@@ -3626,12 +4635,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4.7094378121328804</v>
       </c>
       <c r="B8">
-        <v>2.9922646366081884E-2</v>
+        <v>2.9922646366081881E-2</v>
       </c>
       <c r="C8">
         <v>1.35</v>
@@ -3682,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>1.9915790348048139</v>
       </c>
@@ -3738,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>1.980691304582046</v>
       </c>
@@ -3794,12 +4803,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1.9336677366397059</v>
       </c>
       <c r="B11">
-        <v>0.15749264397861987</v>
+        <v>0.1574926439786199</v>
       </c>
       <c r="C11">
         <v>-0.45624494742588528</v>
@@ -3850,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>1.827040781438199</v>
       </c>
@@ -3906,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>1.7705451871527289</v>
       </c>
@@ -3962,12 +4971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>1.7440974190635239</v>
       </c>
       <c r="B14">
-        <v>2.4338923735390913E-2</v>
+        <v>2.433892373539091E-2</v>
       </c>
       <c r="C14">
         <v>1.191603425233924</v>
@@ -4018,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1.7322008018720709</v>
       </c>
@@ -4074,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>1.7069872080419219</v>
       </c>
@@ -4130,12 +5139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>3.1622776601683784E-2</v>
+        <v>3.1622776601683777E-2</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4186,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>25</v>
       </c>
@@ -4242,12 +5251,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>25</v>
       </c>
       <c r="B19">
-        <v>3.1622776601683764E-3</v>
+        <v>3.1622776601683759E-3</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4304,16 +5313,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4321,43 +5330,67 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -4400,8 +5433,32 @@
       <c r="N2">
         <v>24.87592064662892</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -4444,8 +5501,32 @@
       <c r="N3">
         <v>6.9014880368182627</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4488,8 +5569,32 @@
       <c r="N4">
         <v>29.90226013898921</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4532,8 +5637,32 @@
       <c r="N5">
         <v>73.810903254041875</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4576,8 +5705,32 @@
       <c r="N6">
         <v>89.045063872292474</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4620,8 +5773,32 @@
       <c r="N7">
         <v>94.064905689723247</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4663,6 +5840,42 @@
       </c>
       <c r="N8">
         <v>95.531649062820279</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <f>F8/(100-F8)</f>
+        <v>0.13182567385564065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <f>LOG10(F10)</f>
+        <v>-0.88000000000000023</v>
       </c>
     </row>
   </sheetData>
@@ -4671,16 +5884,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4688,25 +5901,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4732,7 +5945,7 @@
         <v>1.780219780219759</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4758,7 +5971,7 @@
         <v>2.967032967032929</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4784,7 +5997,7 @@
         <v>9.8901098901098674</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4810,7 +6023,7 @@
         <v>36.197802197802098</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4836,7 +6049,7 @@
         <v>64.285714285714207</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4862,7 +6075,7 @@
         <v>79.714285714285694</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4888,7 +6101,7 @@
         <v>85.252747252747199</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4920,30 +6133,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1.9230277973689189</v>
@@ -4958,9 +6171,9 @@
         <v>6.2819968088334883E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>0.45180472927002618</v>
@@ -4975,9 +6188,9 @@
         <v>9.4796428584878155E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>0.4060631417975501</v>
@@ -4992,9 +6205,9 @@
         <v>1.7792669785849251E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0.7640355993348783</v>
@@ -5009,9 +6222,9 @@
         <v>8.4034192197119471E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1.141497734476933</v>
@@ -5026,9 +6239,9 @@
         <v>0.2967112856598183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>1.689088275320092</v>
@@ -5049,32 +6262,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1.897192941483695</v>
@@ -5089,9 +6302,9 @@
         <v>6.5261468608422347E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>0.44785944449720161</v>
@@ -5106,9 +6319,9 @@
         <v>9.2205221974716144E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>0.40606294115621022</v>
@@ -5123,9 +6336,9 @@
         <v>1.7491210543681691E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0.75082756926099659</v>
@@ -5140,9 +6353,9 @@
         <v>8.4797556282485416E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1.114322111707081</v>
@@ -5157,9 +6370,9 @@
         <v>0.26486090809009472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>1.6656777779483489</v>
@@ -5180,30 +6393,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1.9230277973689189</v>
@@ -5218,9 +6431,9 @@
         <v>6.2819968088334883E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>0.45180472927002618</v>
@@ -5235,9 +6448,9 @@
         <v>9.4796428584878155E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>0.4060631417975501</v>
@@ -5252,9 +6465,9 @@
         <v>1.7792669785849251E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0.7640355993348783</v>
@@ -5269,9 +6482,9 @@
         <v>8.4034192197119471E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1.141497734476933</v>
@@ -5286,9 +6499,9 @@
         <v>0.2967112856598183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>1.689088275320092</v>
@@ -5309,16 +6522,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0B4D14-77A9-4737-A81E-2736F8DB61CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5326,31 +6539,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5358,13 +6571,13 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>0.37890162349538925</v>
+        <v>0.37890162349538931</v>
       </c>
       <c r="D2">
         <v>-0.55880438484237782</v>
       </c>
       <c r="E2">
-        <v>-0.22018318867981979</v>
+        <v>-0.22018318867981981</v>
       </c>
       <c r="F2">
         <v>0.28887120618536088</v>
@@ -5382,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5399,7 +6612,7 @@
         <v>-9.619521531998218E-2</v>
       </c>
       <c r="F3">
-        <v>0.41814043679433915</v>
+        <v>0.41814043679433921</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5414,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5425,13 +6638,13 @@
         <v>0.81772606167682238</v>
       </c>
       <c r="D4">
-        <v>-0.12006930682745025</v>
+        <v>-0.12006930682745021</v>
       </c>
       <c r="E4">
-        <v>-1.0486492932958912E-2</v>
+        <v>-1.048649293295891E-2</v>
       </c>
       <c r="F4">
-        <v>0.47260455139702245</v>
+        <v>0.47260455139702251</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5446,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5460,7 +6673,7 @@
         <v>7.2103517063392866E-2</v>
       </c>
       <c r="E5">
-        <v>0.15970084286751188</v>
+        <v>0.15970084286751191</v>
       </c>
       <c r="F5">
         <v>0.52895058389195404</v>
@@ -5478,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5486,7 +6699,7 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1.0031112079008204</v>
+        <v>1.00311120790082</v>
       </c>
       <c r="D6">
         <v>0.27645618591098309</v>
@@ -5510,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -5518,7 +6731,7 @@
         <v>0.19</v>
       </c>
       <c r="C7">
-        <v>0.20196243818624662</v>
+        <v>0.2019624381862466</v>
       </c>
       <c r="D7">
         <v>0.73398894149761618</v>
@@ -5527,7 +6740,7 @@
         <v>2.2411320697578532E-2</v>
       </c>
       <c r="F7">
-        <v>0.37467651080669057</v>
+        <v>0.37467651080669062</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5542,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -5574,7 +6787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -5582,13 +6795,13 @@
         <v>0.99</v>
       </c>
       <c r="C9">
-        <v>1.2243477512838914</v>
+        <v>1.224347751283891</v>
       </c>
       <c r="D9">
         <v>-0.60959581881686786</v>
       </c>
       <c r="E9">
-        <v>-0.23437228355177228</v>
+        <v>-0.23437228355177231</v>
       </c>
       <c r="F9">
         <v>0.46721891154789469</v>
@@ -5606,7 +6819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -5614,7 +6827,7 @@
         <v>1.49</v>
       </c>
       <c r="C10">
-        <v>1.7802534902211495</v>
+        <v>1.78025349022115</v>
       </c>
       <c r="D10">
         <v>-0.65230372820996729</v>
@@ -5638,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5646,7 +6859,7 @@
         <v>1.79</v>
       </c>
       <c r="C11">
-        <v>1.9074053552227763</v>
+        <v>1.9074053552227761</v>
       </c>
       <c r="D11">
         <v>-1.574557366498176</v>

--- a/src/prommis/solvent_extraction/data for parmest.xlsx
+++ b/src/prommis/solvent_extraction/data for parmest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apdgh\Desktop\code work\prommis\src\prommis\solvent_extraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad00105\Desktop\Model_software\prommis\src\prommis\solvent_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD8F15A-5B79-489D-9B9E-8DC2B597BF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B047380-850D-4A8D-ADFC-B3AF21AABE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="1785" windowWidth="25440" windowHeight="15270" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,19 @@
     <sheet name="Fe only" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -235,14 +248,21 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -317,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -333,6 +353,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,9 +640,9 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4.9878531370748496</v>
       </c>
@@ -709,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.9785421780668777</v>
       </c>
@@ -753,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4.9294758200052957</v>
       </c>
@@ -797,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4.8132193011041764</v>
       </c>
@@ -841,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.751685080492198</v>
       </c>
@@ -885,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4.7231095025915941</v>
       </c>
@@ -929,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4.7094378121328804</v>
       </c>
@@ -973,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.9915790348048139</v>
       </c>
@@ -1017,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.980691304582046</v>
       </c>
@@ -1061,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.9336677366397059</v>
       </c>
@@ -1105,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.827040781438199</v>
       </c>
@@ -1149,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.7705451871527289</v>
       </c>
@@ -1193,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.7440974190635239</v>
       </c>
@@ -1237,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.7322008018720709</v>
       </c>
@@ -1281,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.7069872080419219</v>
       </c>
@@ -1338,9 +1359,9 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1436,7 +1457,7 @@
         <v>0.28887120618536088</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1488,7 +1509,7 @@
         <v>0.41814043679433915</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1540,7 +1561,7 @@
         <v>0.47260455139702245</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1592,7 +1613,7 @@
         <v>0.52895058389195404</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1644,7 +1665,7 @@
         <v>0.63375355796501509</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1696,7 +1717,7 @@
         <v>0.37467651080669057</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1748,7 +1769,7 @@
         <v>0.41866397556212759</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1800,7 +1821,7 @@
         <v>0.46721891154789469</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1852,7 +1873,7 @@
         <v>0.60236401267877693</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1915,9 +1936,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
@@ -1931,7 +1952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1948,7 +1969,7 @@
         <v>6.2864096774320477E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -1965,7 +1986,7 @@
         <v>4.0077203456387607E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -1982,7 +2003,7 @@
         <v>1.113666030224005E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
@@ -1999,7 +2020,7 @@
         <v>4.1511253479831678E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -2016,7 +2037,7 @@
         <v>0.20823224027600179</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -2033,7 +2054,7 @@
         <v>1.0917406253311379E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2050,7 +2071,7 @@
         <v>0.81413522217104894</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -2074,18 +2095,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -2108,7 +2130,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.5</v>
       </c>
@@ -2128,10 +2150,10 @@
         <v>-1.459508469728648</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.5</v>
       </c>
@@ -2151,10 +2173,10 @@
         <v>-1.3950350180286311</v>
       </c>
       <c r="G3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -2174,10 +2196,10 @@
         <v>-1.1255415048964621</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -2197,10 +2219,10 @@
         <v>-0.67196194978818546</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -2220,10 +2242,10 @@
         <v>-0.47042249237096162</v>
       </c>
       <c r="G6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.5</v>
       </c>
@@ -2243,10 +2265,10 @@
         <v>-0.31200400667958628</v>
       </c>
       <c r="G7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.25</v>
       </c>
@@ -2266,10 +2288,10 @@
         <v>-1.1255415048964621</v>
       </c>
       <c r="G8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.25</v>
       </c>
@@ -2289,10 +2311,10 @@
         <v>-1.060697840353612</v>
       </c>
       <c r="G9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.25</v>
       </c>
@@ -2312,10 +2334,10 @@
         <v>-0.59162807707882048</v>
       </c>
       <c r="G10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.25</v>
       </c>
@@ -2335,10 +2357,10 @@
         <v>-0.35867676221663419</v>
       </c>
       <c r="G11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.25</v>
       </c>
@@ -2358,10 +2380,10 @@
         <v>-0.18545141623350389</v>
       </c>
       <c r="G12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.25</v>
       </c>
@@ -2381,10 +2403,10 @@
         <v>-7.5278833809880707E-2</v>
       </c>
       <c r="G13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2404,10 +2426,10 @@
         <v>-0.86001925831308712</v>
       </c>
       <c r="G14">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2427,10 +2449,10 @@
         <v>-0.58475513311949412</v>
       </c>
       <c r="G15">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2450,10 +2472,10 @@
         <v>-0.34291184304614308</v>
       </c>
       <c r="G16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2473,10 +2495,10 @@
         <v>-0.12984607110304461</v>
       </c>
       <c r="G17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2496,10 +2518,10 @@
         <v>3.7007455495558783E-2</v>
       </c>
       <c r="G18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.75</v>
       </c>
@@ -2519,10 +2541,10 @@
         <v>-0.61264445871439843</v>
       </c>
       <c r="G19">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.75</v>
       </c>
@@ -2542,10 +2564,10 @@
         <v>-0.40739870156912439</v>
       </c>
       <c r="G20">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.75</v>
       </c>
@@ -2565,10 +2587,10 @@
         <v>-0.15748908008541809</v>
       </c>
       <c r="G21">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.75</v>
       </c>
@@ -2588,10 +2610,10 @@
         <v>4.5994098837789217E-2</v>
       </c>
       <c r="G22">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.75</v>
       </c>
@@ -2611,10 +2633,10 @@
         <v>0.15980621578611609</v>
       </c>
       <c r="G23">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.5</v>
       </c>
@@ -2633,11 +2655,11 @@
       <c r="F24">
         <v>-0.46451062289420247</v>
       </c>
-      <c r="G24">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.5</v>
       </c>
@@ -2656,11 +2678,11 @@
       <c r="F25">
         <v>-0.2329428259945775</v>
       </c>
-      <c r="G25">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.5</v>
       </c>
@@ -2679,11 +2701,11 @@
       <c r="F26">
         <v>-4.3746590551702998E-2</v>
       </c>
-      <c r="G26">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.5</v>
       </c>
@@ -2702,11 +2724,11 @@
       <c r="F27">
         <v>0.21617941788473871</v>
       </c>
-      <c r="G27">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.5</v>
       </c>
@@ -2725,241 +2747,241 @@
       <c r="F28">
         <v>0.43267014507721679</v>
       </c>
-      <c r="G28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="G28" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>0.25</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="7">
         <v>0.73475513428119998</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <v>33.5483870967741</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <v>0.50485436893203661</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="7">
         <v>-0.29683388107037489</v>
       </c>
-      <c r="G29">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="G29" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>0.25</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="7">
         <v>0.90157977883096296</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <v>5</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="7">
         <v>45.935483870967701</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="7">
         <v>0.84964200477326834</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="7">
         <v>-7.0764024993420827E-2</v>
       </c>
-      <c r="G30">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="G30" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>0.25</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <v>1.1170616113744001</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <v>5</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="7">
         <v>55.741935483870897</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="7">
         <v>1.259475218658888</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="7">
         <v>0.1001896267721403</v>
       </c>
-      <c r="G31">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="G31" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>0.25</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="7">
         <v>1.38988941548183</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="7">
         <v>5</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="7">
         <v>72.516129032257993</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="7">
         <v>2.6384976525821502</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="7">
         <v>0.42135671213032178</v>
       </c>
-      <c r="G32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="G32" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>0.25</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="7">
         <v>1.57930489731437</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="7">
         <v>5</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="7">
         <v>83.354838709677395</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="7">
         <v>5.0077519379844873</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="7">
         <v>0.69964280769583431</v>
       </c>
-      <c r="G33">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34">
+      <c r="G33" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>0</v>
+      </c>
+      <c r="B34" s="7">
         <v>0.5</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
         <v>8.43</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="7">
         <v>0.27618215572785848</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="7">
         <v>-0.55880438484237782</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35">
+      <c r="G34" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>0</v>
+      </c>
+      <c r="B35" s="7">
         <v>0.5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="7">
         <v>2</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="7">
         <v>15.59</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="7">
         <v>0.55408126999170715</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="7">
         <v>-0.25642653036117807</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>0</v>
-      </c>
-      <c r="B36">
+      <c r="G35" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>0</v>
+      </c>
+      <c r="B36" s="7">
         <v>0.5</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="7">
         <v>3</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="7">
         <v>20.18</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="7">
         <v>0.75845652718616896</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="7">
         <v>-0.12006930682745021</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37">
+      <c r="G36" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>0</v>
+      </c>
+      <c r="B37" s="7">
         <v>0.5</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="7">
         <v>4</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="7">
         <v>28.24</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <v>1.1806020066889631</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="7">
         <v>7.2103517063392866E-2</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38">
+      <c r="G37" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>0</v>
+      </c>
+      <c r="B38" s="7">
         <v>0.5</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="7">
         <v>5</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="7">
         <v>38.65</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="7">
         <v>1.889975550122249</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="7">
         <v>0.27645618591098309</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2979,10 +3001,10 @@
         <v>0.73398894149761618</v>
       </c>
       <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -3002,10 +3024,10 @@
         <v>-0.26172914980845402</v>
       </c>
       <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3025,10 +3047,10 @@
         <v>-0.60959581881686786</v>
       </c>
       <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3048,10 +3070,10 @@
         <v>-0.65230372820996729</v>
       </c>
       <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3071,7 +3093,332 @@
         <v>-1.574557366498176</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0.02</v>
+      </c>
+      <c r="C44">
+        <v>3.3</v>
+      </c>
+      <c r="D44">
+        <v>0.1</v>
+      </c>
+      <c r="E44">
+        <f>D44/(100-D44)</f>
+        <v>1.001001001001001E-3</v>
+      </c>
+      <c r="F44">
+        <f>LOG10(E44)</f>
+        <v>-2.9995654882259823</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0.13</v>
+      </c>
+      <c r="C45">
+        <v>3.3</v>
+      </c>
+      <c r="D45">
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45:E56" si="0">D45/(100-D45)</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45:F56" si="1">LOG10(E45)</f>
+        <v>-0.50060235056918534</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0.33</v>
+      </c>
+      <c r="C46">
+        <v>3.3</v>
+      </c>
+      <c r="D46">
+        <v>55</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>8.71501757189002E-2</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0.43</v>
+      </c>
+      <c r="C47">
+        <v>3.3</v>
+      </c>
+      <c r="D47">
+        <v>71</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>2.4482758620689653</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>0.38886035082011916</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0.6</v>
+      </c>
+      <c r="C48">
+        <v>3.3</v>
+      </c>
+      <c r="D48">
+        <v>84</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0.72015930340595691</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0.74</v>
+      </c>
+      <c r="C49">
+        <v>3.3</v>
+      </c>
+      <c r="D49">
+        <v>93</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>13.285714285714286</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>1.1233849085396783</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0.98</v>
+      </c>
+      <c r="C50">
+        <v>3.3</v>
+      </c>
+      <c r="D50">
+        <v>97</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>32.333333333333336</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>1.5096504795465824</v>
+      </c>
+      <c r="G50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C51">
+        <v>3.3</v>
+      </c>
+      <c r="D51">
+        <v>98.6</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>70.428571428571132</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>1.8477488792629713</v>
+      </c>
+      <c r="G51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>1.22</v>
+      </c>
+      <c r="C52">
+        <v>3.3</v>
+      </c>
+      <c r="D52">
+        <v>99.3</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>141.85714285714226</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>2.1518512084811223</v>
+      </c>
+      <c r="G52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>1.24</v>
+      </c>
+      <c r="C53">
+        <v>3.3</v>
+      </c>
+      <c r="D53">
+        <v>99.4</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>165.66666666666825</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>2.2192351340136738</v>
+      </c>
+      <c r="G53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>1.36</v>
+      </c>
+      <c r="C54">
+        <v>3.3</v>
+      </c>
+      <c r="D54">
+        <v>99.7</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>332.3333333333365</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>2.5215739035919973</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>1.65</v>
+      </c>
+      <c r="C55">
+        <v>3.3</v>
+      </c>
+      <c r="D55">
+        <v>99.9</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>999.00000000005684</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>2.9995654882260072</v>
+      </c>
+      <c r="G55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>1.94</v>
+      </c>
+      <c r="C56">
+        <v>3.3</v>
+      </c>
+      <c r="D56">
+        <v>99.9</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>999.00000000005684</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>2.9995654882260072</v>
+      </c>
+      <c r="G56">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3087,9 +3434,9 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3145,7 +3492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>4.9878531370748496</v>
       </c>
@@ -3205,7 +3552,7 @@
         <v>0.57411646220732748</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>4.9785421780668777</v>
       </c>
@@ -3265,7 +3612,7 @@
         <v>0.29716660317380256</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>4.9294758200052957</v>
       </c>
@@ -3325,7 +3672,7 @@
         <v>0.15995580286146685</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4.8132193011041764</v>
       </c>
@@ -3385,7 +3732,7 @@
         <v>7.2945751025456848E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4.751685080492198</v>
       </c>
@@ -3445,7 +3792,7 @@
         <v>4.7752927365769082E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4.7231095025915941</v>
       </c>
@@ -3505,7 +3852,7 @@
         <v>3.4197944251370883E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4.7094378121328804</v>
       </c>
@@ -3565,7 +3912,7 @@
         <v>2.9922646366081884E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.9915790348048139</v>
       </c>
@@ -3625,7 +3972,7 @@
         <v>0.5812775655381871</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1.980691304582046</v>
       </c>
@@ -3685,7 +4032,7 @@
         <v>0.29595990327355498</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1.9336677366397059</v>
       </c>
@@ -3745,7 +4092,7 @@
         <v>0.15749264397861987</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1.827040781438199</v>
       </c>
@@ -3805,7 +4152,7 @@
         <v>6.8057612907559836E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1.7705451871527289</v>
       </c>
@@ -3865,7 +4212,7 @@
         <v>3.833201450680674E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1.7440974190635239</v>
       </c>
@@ -3925,7 +4272,7 @@
         <v>2.4338923735390913E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1.7322008018720709</v>
       </c>
@@ -3985,7 +4332,7 @@
         <v>2.0142324533150509E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1.7069872080419219</v>
       </c>
@@ -4045,7 +4392,7 @@
         <v>8.4338796081341733E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>25</v>
       </c>
@@ -4105,7 +4452,7 @@
         <v>3.1622776601683784E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25</v>
       </c>
@@ -4165,7 +4512,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25</v>
       </c>
@@ -4238,12 +4585,12 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4299,7 +4646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>4.9878531370748496</v>
       </c>
@@ -4355,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>4.9785421780668777</v>
       </c>
@@ -4411,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>4.9294758200052957</v>
       </c>
@@ -4467,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4.8132193011041764</v>
       </c>
@@ -4523,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4.751685080492198</v>
       </c>
@@ -4579,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4.7231095025915941</v>
       </c>
@@ -4635,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4.7094378121328804</v>
       </c>
@@ -4691,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1.9915790348048139</v>
       </c>
@@ -4747,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1.980691304582046</v>
       </c>
@@ -4803,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1.9336677366397059</v>
       </c>
@@ -4859,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1.827040781438199</v>
       </c>
@@ -4915,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1.7705451871527289</v>
       </c>
@@ -4971,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1.7440974190635239</v>
       </c>
@@ -5027,7 +5374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1.7322008018720709</v>
       </c>
@@ -5083,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1.7069872080419219</v>
       </c>
@@ -5139,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>25</v>
       </c>
@@ -5195,7 +5542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25</v>
       </c>
@@ -5251,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25</v>
       </c>
@@ -5320,9 +5667,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5390,7 +5737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -5458,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -5526,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -5594,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5662,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5730,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5798,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5866,13 +6213,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F10">
         <f>F8/(100-F8)</f>
         <v>0.13182567385564065</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F11">
         <f>LOG10(F10)</f>
         <v>-0.88000000000000023</v>
@@ -5891,9 +6238,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5919,7 +6266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5945,7 +6292,7 @@
         <v>1.780219780219759</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5971,7 +6318,7 @@
         <v>2.967032967032929</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5997,7 +6344,7 @@
         <v>9.8901098901098674</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6023,7 +6370,7 @@
         <v>36.197802197802098</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6049,7 +6396,7 @@
         <v>64.285714285714207</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6075,7 +6422,7 @@
         <v>79.714285714285694</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6101,7 +6448,7 @@
         <v>85.252747252747199</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6138,9 +6485,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
@@ -6154,7 +6501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -6171,7 +6518,7 @@
         <v>6.2819968088334883E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -6188,7 +6535,7 @@
         <v>9.4796428584878155E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -6205,7 +6552,7 @@
         <v>1.7792669785849251E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -6222,7 +6569,7 @@
         <v>8.4034192197119471E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -6239,7 +6586,7 @@
         <v>0.2967112856598183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -6269,9 +6616,9 @@
       <selection activeCell="B2" sqref="B2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
@@ -6285,7 +6632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -6302,7 +6649,7 @@
         <v>6.5261468608422347E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -6319,7 +6666,7 @@
         <v>9.2205221974716144E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -6336,7 +6683,7 @@
         <v>1.7491210543681691E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -6353,7 +6700,7 @@
         <v>8.4797556282485416E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -6370,7 +6717,7 @@
         <v>0.26486090809009472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -6398,9 +6745,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>31</v>
       </c>
@@ -6414,7 +6761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -6431,7 +6778,7 @@
         <v>6.2819968088334883E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -6448,7 +6795,7 @@
         <v>9.4796428584878155E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -6465,7 +6812,7 @@
         <v>1.7792669785849251E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -6482,7 +6829,7 @@
         <v>8.4034192197119471E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -6499,7 +6846,7 @@
         <v>0.2967112856598183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -6529,9 +6876,9 @@
       <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6563,7 +6910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6595,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6627,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6659,7 +7006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6691,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6723,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6755,7 +7102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6787,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6819,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -6851,7 +7198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>

--- a/src/prommis/solvent_extraction/data for parmest.xlsx
+++ b/src/prommis/solvent_extraction/data for parmest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad00105\Desktop\Model_software\prommis\src\prommis\solvent_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B047380-850D-4A8D-ADFC-B3AF21AABE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F811EED-0D76-4033-B95E-9CD4BF3AB475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="1785" windowWidth="25440" windowHeight="15270" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
